--- a/nodes.xlsx
+++ b/nodes.xlsx
@@ -492,7 +492,7 @@
         <v>7459</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.76</v>
+        <v>-4.17</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.022</v>
+        <v>0.006</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.3561</v>
+        <v>-4.6712</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +523,7 @@
         <v>1174</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.69</v>
+        <v>-4.1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I3" t="n">
-        <v>-6.1888</v>
+        <v>-4.6039</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         <v>3164</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.18</v>
+        <v>-4.59</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.003</v>
       </c>
       <c r="I4" t="n">
-        <v>-6.9296</v>
+        <v>-5.0946</v>
       </c>
     </row>
     <row r="5">
@@ -585,7 +585,7 @@
         <v>1785</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.1</v>
+        <v>-4.52</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I5" t="n">
-        <v>-6.3543</v>
+        <v>-4.7694</v>
       </c>
     </row>
     <row r="6">
@@ -616,7 +616,7 @@
         <v>1379</v>
       </c>
       <c r="F6" t="n">
-        <v>-6.43</v>
+        <v>-4.85</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I6" t="n">
-        <v>-6.9335</v>
+        <v>-5.0986</v>
       </c>
     </row>
     <row r="7">
@@ -647,7 +647,7 @@
         <v>1203</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.42</v>
+        <v>-4.84</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I7" t="n">
-        <v>-6.9239</v>
+        <v>-5.089</v>
       </c>
     </row>
     <row r="8">
@@ -678,7 +678,7 @@
         <v>337</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.15</v>
+        <v>-4.57</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-6.4043</v>
+        <v>-4.8194</v>
       </c>
     </row>
     <row r="9">
@@ -709,7 +709,7 @@
         <v>2448</v>
       </c>
       <c r="F9" t="n">
-        <v>-6.29</v>
+        <v>-4.71</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I9" t="n">
-        <v>-6.5443</v>
+        <v>-4.9594</v>
       </c>
     </row>
     <row r="10">
@@ -740,7 +740,7 @@
         <v>5811</v>
       </c>
       <c r="F10" t="n">
-        <v>-6.1</v>
+        <v>-4.52</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.017</v>
+        <v>0.005</v>
       </c>
       <c r="I10" t="n">
-        <v>-6.3506</v>
+        <v>-4.7657</v>
       </c>
     </row>
     <row r="11">
@@ -771,7 +771,7 @@
         <v>14344</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.52</v>
+        <v>-3.93</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -779,10 +779,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.042</v>
+        <v>0.011</v>
       </c>
       <c r="I11" t="n">
-        <v>-6.0168</v>
+        <v>-4.1819</v>
       </c>
     </row>
     <row r="12">
@@ -802,7 +802,7 @@
         <v>8620</v>
       </c>
       <c r="F12" t="n">
-        <v>-5.26</v>
+        <v>-3.68</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.025</v>
+        <v>0.007</v>
       </c>
       <c r="I12" t="n">
-        <v>-5.515</v>
+        <v>-3.93</v>
       </c>
     </row>
     <row r="13">
@@ -833,7 +833,7 @@
         <v>4287</v>
       </c>
       <c r="F13" t="n">
-        <v>-5.49</v>
+        <v>-3.91</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.013</v>
+        <v>0.003</v>
       </c>
       <c r="I13" t="n">
-        <v>-5.992</v>
+        <v>-4.1571</v>
       </c>
     </row>
     <row r="14">
@@ -864,7 +864,7 @@
         <v>10787</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.33</v>
+        <v>-4.74</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -872,10 +872,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.031</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.5787</v>
+        <v>-4.9938</v>
       </c>
     </row>
     <row r="15">
@@ -895,7 +895,7 @@
         <v>810</v>
       </c>
       <c r="F15" t="n">
-        <v>-6.55</v>
+        <v>-4.97</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I15" t="n">
-        <v>-7.0522</v>
+        <v>-5.2173</v>
       </c>
     </row>
     <row r="16">
@@ -926,7 +926,7 @@
         <v>7907</v>
       </c>
       <c r="F16" t="n">
-        <v>-6.19</v>
+        <v>-4.61</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.023</v>
+        <v>0.006</v>
       </c>
       <c r="I16" t="n">
-        <v>-6.4437</v>
+        <v>-4.8588</v>
       </c>
     </row>
     <row r="17">
@@ -957,7 +957,7 @@
         <v>2121</v>
       </c>
       <c r="F17" t="n">
-        <v>-5.93</v>
+        <v>-4.35</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I17" t="n">
-        <v>-6.1849</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="18">
@@ -988,7 +988,7 @@
         <v>1575</v>
       </c>
       <c r="F18" t="n">
-        <v>-6.32</v>
+        <v>-4.74</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I18" t="n">
-        <v>-7.0735</v>
+        <v>-5.2386</v>
       </c>
     </row>
     <row r="19">
@@ -1019,7 +1019,7 @@
         <v>7585</v>
       </c>
       <c r="F19" t="n">
-        <v>-5.3</v>
+        <v>-3.71</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.022</v>
+        <v>0.006</v>
       </c>
       <c r="I19" t="n">
-        <v>-5.5464</v>
+        <v>-3.9615</v>
       </c>
     </row>
     <row r="20">
@@ -1050,7 +1050,7 @@
         <v>4085</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.4</v>
+        <v>-3.82</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="I20" t="n">
-        <v>-5.9027</v>
+        <v>-4.0678</v>
       </c>
     </row>
     <row r="21">
@@ -1081,7 +1081,7 @@
         <v>3806</v>
       </c>
       <c r="F21" t="n">
-        <v>-6.12</v>
+        <v>-4.53</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="I21" t="n">
-        <v>-6.3698</v>
+        <v>-4.7849</v>
       </c>
     </row>
     <row r="22">
@@ -1112,7 +1112,7 @@
         <v>2076</v>
       </c>
       <c r="F22" t="n">
-        <v>-6.47</v>
+        <v>-4.88</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I22" t="n">
-        <v>-7.216</v>
+        <v>-5.381</v>
       </c>
     </row>
     <row r="23">
@@ -1143,7 +1143,7 @@
         <v>1934</v>
       </c>
       <c r="F23" t="n">
-        <v>-6.7</v>
+        <v>-5.11</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1151,10 +1151,10 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I23" t="n">
-        <v>-8.6968</v>
+        <v>-6.1119</v>
       </c>
     </row>
     <row r="24">
@@ -1174,7 +1174,7 @@
         <v>1898</v>
       </c>
       <c r="F24" t="n">
-        <v>-6.34</v>
+        <v>-4.75</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I24" t="n">
-        <v>-6.5866</v>
+        <v>-5.0017</v>
       </c>
     </row>
     <row r="25">
@@ -1205,7 +1205,7 @@
         <v>1982</v>
       </c>
       <c r="F25" t="n">
-        <v>-6.6</v>
+        <v>-5.01</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I25" t="n">
-        <v>-7.3475</v>
+        <v>-5.5126</v>
       </c>
     </row>
     <row r="26">
@@ -1236,7 +1236,7 @@
         <v>5210</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.85</v>
+        <v>-4.27</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1244,10 +1244,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.015</v>
+        <v>0.004</v>
       </c>
       <c r="I26" t="n">
-        <v>-6.1028</v>
+        <v>-4.5179</v>
       </c>
     </row>
     <row r="27">
@@ -1267,7 +1267,7 @@
         <v>2189</v>
       </c>
       <c r="F27" t="n">
-        <v>-6.46</v>
+        <v>-4.88</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I27" t="n">
-        <v>-6.7127</v>
+        <v>-5.1278</v>
       </c>
     </row>
     <row r="28">
@@ -1298,7 +1298,7 @@
         <v>1887</v>
       </c>
       <c r="F28" t="n">
-        <v>-6.24</v>
+        <v>-4.88</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I28" t="n">
-        <v>-7.7367</v>
+        <v>-5.6319</v>
       </c>
     </row>
     <row r="29">
@@ -1329,7 +1329,7 @@
         <v>3913</v>
       </c>
       <c r="F29" t="n">
-        <v>-7.21</v>
+        <v>-5.37</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="I29" t="n">
-        <v>-9.2119</v>
+        <v>-6.3694</v>
       </c>
     </row>
     <row r="30">
@@ -1360,7 +1360,7 @@
         <v>16430</v>
       </c>
       <c r="F30" t="n">
-        <v>-7.45</v>
+        <v>-5.49</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1368,10 +1368,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.048</v>
+        <v>0.013</v>
       </c>
       <c r="I30" t="n">
-        <v>-9.446400000000001</v>
+        <v>-6.4867</v>
       </c>
     </row>
     <row r="31">
@@ -1391,7 +1391,7 @@
         <v>6066</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.22</v>
+        <v>-4.07</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.018</v>
+        <v>0.005</v>
       </c>
       <c r="I31" t="n">
-        <v>-5.4729</v>
+        <v>-4.3208</v>
       </c>
     </row>
     <row r="32">
@@ -1422,7 +1422,7 @@
         <v>4582</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.44</v>
+        <v>-4.29</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.013</v>
+        <v>0.004</v>
       </c>
       <c r="I32" t="n">
-        <v>-5.9428</v>
+        <v>-4.5407</v>
       </c>
     </row>
     <row r="33">
@@ -1453,7 +1453,7 @@
         <v>1710</v>
       </c>
       <c r="F33" t="n">
-        <v>-5.34</v>
+        <v>-4.19</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1461,10 +1461,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I33" t="n">
-        <v>-5.5915</v>
+        <v>-4.4394</v>
       </c>
     </row>
     <row r="34">
@@ -1484,7 +1484,7 @@
         <v>2748</v>
       </c>
       <c r="F34" t="n">
-        <v>-5.65</v>
+        <v>-4.45</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I34" t="n">
-        <v>-5.9016</v>
+        <v>-4.7037</v>
       </c>
     </row>
     <row r="35">
@@ -1512,10 +1512,10 @@
         <v>-1.125</v>
       </c>
       <c r="E35" t="n">
-        <v>2116</v>
+        <v>2134</v>
       </c>
       <c r="F35" t="n">
-        <v>-5.73</v>
+        <v>-4.53</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I35" t="n">
-        <v>-5.9797</v>
+        <v>-4.7818</v>
       </c>
     </row>
     <row r="36">
@@ -1546,7 +1546,7 @@
         <v>724</v>
       </c>
       <c r="F36" t="n">
-        <v>-5.82</v>
+        <v>-4.59</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1554,10 +1554,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I36" t="n">
-        <v>-6.0722</v>
+        <v>-4.8409</v>
       </c>
     </row>
     <row r="37">
@@ -1577,7 +1577,7 @@
         <v>957</v>
       </c>
       <c r="F37" t="n">
-        <v>-5.92</v>
+        <v>-4.72</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I37" t="n">
-        <v>-7.1729</v>
+        <v>-5.3249</v>
       </c>
     </row>
     <row r="38">
@@ -1608,7 +1608,7 @@
         <v>1933</v>
       </c>
       <c r="F38" t="n">
-        <v>-5.79</v>
+        <v>-4.51</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I38" t="n">
-        <v>-6.0381</v>
+        <v>-4.7618</v>
       </c>
     </row>
     <row r="39">
@@ -1639,7 +1639,7 @@
         <v>2241</v>
       </c>
       <c r="F39" t="n">
-        <v>-5.87</v>
+        <v>-4.59</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1647,10 +1647,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I39" t="n">
-        <v>-6.1154</v>
+        <v>-4.8391</v>
       </c>
     </row>
     <row r="40">
@@ -1670,7 +1670,7 @@
         <v>1048</v>
       </c>
       <c r="F40" t="n">
-        <v>-6.08</v>
+        <v>-4.8</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I40" t="n">
-        <v>-7.3295</v>
+        <v>-5.4033</v>
       </c>
     </row>
     <row r="41">
@@ -1701,7 +1701,7 @@
         <v>1058</v>
       </c>
       <c r="F41" t="n">
-        <v>-6.18</v>
+        <v>-4.85</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1709,10 +1709,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I41" t="n">
-        <v>-7.426</v>
+        <v>-5.4515</v>
       </c>
     </row>
     <row r="42">
@@ -1732,7 +1732,7 @@
         <v>2164</v>
       </c>
       <c r="F42" t="n">
-        <v>-4.85</v>
+        <v>-3.49</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I42" t="n">
-        <v>-5.0972</v>
+        <v>-3.7424</v>
       </c>
     </row>
     <row r="43">
@@ -1763,7 +1763,7 @@
         <v>3019</v>
       </c>
       <c r="F43" t="n">
-        <v>-4.96</v>
+        <v>-3.6</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1771,10 +1771,10 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="I43" t="n">
-        <v>-5.2056</v>
+        <v>-3.8507</v>
       </c>
     </row>
     <row r="44">
@@ -1794,7 +1794,7 @@
         <v>1851</v>
       </c>
       <c r="F44" t="n">
-        <v>-5.1</v>
+        <v>-3.75</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I44" t="n">
-        <v>-5.3515</v>
+        <v>-3.9967</v>
       </c>
     </row>
     <row r="45">
@@ -1825,7 +1825,7 @@
         <v>4852</v>
       </c>
       <c r="F45" t="n">
-        <v>-5.56</v>
+        <v>-4.41</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.014</v>
+        <v>0.004</v>
       </c>
       <c r="I45" t="n">
-        <v>-6.0636</v>
+        <v>-4.6615</v>
       </c>
     </row>
     <row r="46">
@@ -1856,7 +1856,7 @@
         <v>1742</v>
       </c>
       <c r="F46" t="n">
-        <v>-5.83</v>
+        <v>-4.68</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I46" t="n">
-        <v>-7.0812</v>
+        <v>-5.2791</v>
       </c>
     </row>
     <row r="47">
@@ -1887,7 +1887,7 @@
         <v>1942</v>
       </c>
       <c r="F47" t="n">
-        <v>-5.99</v>
+        <v>-4.76</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1895,10 +1895,10 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I47" t="n">
-        <v>-7.2396</v>
+        <v>-5.3583</v>
       </c>
     </row>
     <row r="48">
@@ -1918,7 +1918,7 @@
         <v>937</v>
       </c>
       <c r="F48" t="n">
-        <v>-5.19</v>
+        <v>-4.14</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I48" t="n">
-        <v>-5.4447</v>
+        <v>-4.3857</v>
       </c>
     </row>
     <row r="49">
@@ -1949,7 +1949,7 @@
         <v>974</v>
       </c>
       <c r="F49" t="n">
-        <v>-6.15</v>
+        <v>-4.8</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1957,10 +1957,10 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I49" t="n">
-        <v>-6.4038</v>
+        <v>-5.0489</v>
       </c>
     </row>
     <row r="50">
@@ -1980,7 +1980,7 @@
         <v>1221</v>
       </c>
       <c r="F50" t="n">
-        <v>-5.96</v>
+        <v>-4.6</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I50" t="n">
-        <v>-6.9553</v>
+        <v>-5.1005</v>
       </c>
     </row>
     <row r="51">
@@ -2011,7 +2011,7 @@
         <v>654</v>
       </c>
       <c r="F51" t="n">
-        <v>-5.32</v>
+        <v>-3.96</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2019,10 +2019,10 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I51" t="n">
-        <v>-5.5698</v>
+        <v>-4.215</v>
       </c>
     </row>
     <row r="52">
@@ -2042,7 +2042,7 @@
         <v>1790</v>
       </c>
       <c r="F52" t="n">
-        <v>-5.94</v>
+        <v>-4.59</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I52" t="n">
-        <v>-6.1943</v>
+        <v>-4.8395</v>
       </c>
     </row>
     <row r="53">
@@ -2073,7 +2073,7 @@
         <v>714</v>
       </c>
       <c r="F53" t="n">
-        <v>-5.15</v>
+        <v>-3.8</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2081,10 +2081,10 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I53" t="n">
-        <v>-5.4049</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="54">
@@ -2104,7 +2104,7 @@
         <v>1035</v>
       </c>
       <c r="F54" t="n">
-        <v>-5.7</v>
+        <v>-4.35</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I54" t="n">
-        <v>-6.2037</v>
+        <v>-4.5988</v>
       </c>
     </row>
     <row r="55">
@@ -2135,7 +2135,7 @@
         <v>2433</v>
       </c>
       <c r="F55" t="n">
-        <v>-5.24</v>
+        <v>-3.88</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2143,10 +2143,10 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I55" t="n">
-        <v>-5.7361</v>
+        <v>-4.1312</v>
       </c>
     </row>
     <row r="56">
@@ -2166,7 +2166,7 @@
         <v>10720</v>
       </c>
       <c r="F56" t="n">
-        <v>-5.13</v>
+        <v>-3.78</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0.031</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I56" t="n">
-        <v>-5.38</v>
+        <v>-4.0251</v>
       </c>
     </row>
     <row r="57">
@@ -2197,7 +2197,7 @@
         <v>3992</v>
       </c>
       <c r="F57" t="n">
-        <v>-5.6</v>
+        <v>-4.25</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="I57" t="n">
-        <v>-6.101</v>
+        <v>-4.4962</v>
       </c>
     </row>
     <row r="58">
@@ -2228,7 +2228,7 @@
         <v>8650</v>
       </c>
       <c r="F58" t="n">
-        <v>-5.29</v>
+        <v>-4.23</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>0.025</v>
+        <v>0.007</v>
       </c>
       <c r="I58" t="n">
-        <v>-5.5436</v>
+        <v>-4.4846</v>
       </c>
     </row>
     <row r="59">
@@ -2259,7 +2259,7 @@
         <v>2145</v>
       </c>
       <c r="F59" t="n">
-        <v>-5.64</v>
+        <v>-4.59</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2267,10 +2267,10 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I59" t="n">
-        <v>-6.8948</v>
+        <v>-5.1859</v>
       </c>
     </row>
     <row r="60">
@@ -2290,7 +2290,7 @@
         <v>2974</v>
       </c>
       <c r="F60" t="n">
-        <v>-5.55</v>
+        <v>-4.49</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2298,10 +2298,10 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="I60" t="n">
-        <v>-6.0483</v>
+        <v>-4.7394</v>
       </c>
     </row>
     <row r="61">
@@ -2321,7 +2321,7 @@
         <v>937</v>
       </c>
       <c r="F61" t="n">
-        <v>-5.45</v>
+        <v>-4.4</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I61" t="n">
-        <v>-5.7043</v>
+        <v>-4.6453</v>
       </c>
     </row>
     <row r="62">
@@ -2352,7 +2352,7 @@
         <v>2714</v>
       </c>
       <c r="F62" t="n">
-        <v>-5.33</v>
+        <v>-4.28</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2360,10 +2360,10 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I62" t="n">
-        <v>-5.5842</v>
+        <v>-4.5253</v>
       </c>
     </row>
     <row r="63">
@@ -2383,7 +2383,7 @@
         <v>1979</v>
       </c>
       <c r="F63" t="n">
-        <v>-5.88</v>
+        <v>-4.52</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I63" t="n">
-        <v>-6.8753</v>
+        <v>-5.0204</v>
       </c>
     </row>
     <row r="64">
@@ -2414,7 +2414,7 @@
         <v>1306</v>
       </c>
       <c r="F64" t="n">
-        <v>-5.52</v>
+        <v>-4.16</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I64" t="n">
-        <v>-5.7661</v>
+        <v>-4.4112</v>
       </c>
     </row>
     <row r="65">
@@ -2445,7 +2445,7 @@
         <v>2886</v>
       </c>
       <c r="F65" t="n">
-        <v>-5.21</v>
+        <v>-3.86</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2453,10 +2453,10 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I65" t="n">
-        <v>-5.4617</v>
+        <v>-4.1069</v>
       </c>
     </row>
     <row r="66">
@@ -2473,10 +2473,10 @@
         <v>-1.902</v>
       </c>
       <c r="E66" t="n">
-        <v>2256</v>
+        <v>1787</v>
       </c>
       <c r="F66" t="n">
-        <v>-5.24</v>
+        <v>-4.18</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="I66" t="n">
-        <v>-5.49</v>
+        <v>-4.4311</v>
       </c>
     </row>
     <row r="67">
@@ -2507,7 +2507,7 @@
         <v>1242</v>
       </c>
       <c r="F67" t="n">
-        <v>-5.41</v>
+        <v>-4.05</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I67" t="n">
-        <v>-5.6562</v>
+        <v>-4.3014</v>
       </c>
     </row>
     <row r="68">
@@ -2538,7 +2538,7 @@
         <v>1365</v>
       </c>
       <c r="F68" t="n">
-        <v>-5.36</v>
+        <v>-4.01</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I68" t="n">
-        <v>-6.1143</v>
+        <v>-4.5094</v>
       </c>
     </row>
     <row r="69">
@@ -2569,7 +2569,7 @@
         <v>1019</v>
       </c>
       <c r="F69" t="n">
-        <v>-5.37</v>
+        <v>-4.45</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I69" t="n">
-        <v>-6.3703</v>
+        <v>-4.9486</v>
       </c>
     </row>
     <row r="70">
@@ -2600,7 +2600,7 @@
         <v>3934</v>
       </c>
       <c r="F70" t="n">
-        <v>-4.53</v>
+        <v>-3.6</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2608,10 +2608,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="I70" t="n">
-        <v>-4.7758</v>
+        <v>-3.8542</v>
       </c>
     </row>
     <row r="71">
@@ -2631,7 +2631,7 @@
         <v>1389</v>
       </c>
       <c r="F71" t="n">
-        <v>-4.75</v>
+        <v>-3.83</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I71" t="n">
-        <v>-4.9995</v>
+        <v>-4.0778</v>
       </c>
     </row>
     <row r="72">
@@ -2662,7 +2662,7 @@
         <v>1898</v>
       </c>
       <c r="F72" t="n">
-        <v>-5.6</v>
+        <v>-4.24</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2670,10 +2670,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I72" t="n">
-        <v>-6.3472</v>
+        <v>-4.7424</v>
       </c>
     </row>
     <row r="73">
@@ -2693,7 +2693,7 @@
         <v>1645</v>
       </c>
       <c r="F73" t="n">
-        <v>-5.19</v>
+        <v>-4.26</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2701,10 +2701,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I73" t="n">
-        <v>-5.6862</v>
+        <v>-4.5146</v>
       </c>
     </row>
     <row r="74">
@@ -2724,7 +2724,7 @@
         <v>1062</v>
       </c>
       <c r="F74" t="n">
-        <v>-5.11</v>
+        <v>-4.19</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2732,10 +2732,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I74" t="n">
-        <v>-5.3579</v>
+        <v>-4.4363</v>
       </c>
     </row>
     <row r="75">
@@ -2755,7 +2755,7 @@
         <v>1207</v>
       </c>
       <c r="F75" t="n">
-        <v>-4.85</v>
+        <v>-3.93</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2763,10 +2763,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I75" t="n">
-        <v>-5.3533</v>
+        <v>-4.1817</v>
       </c>
     </row>
     <row r="76">
@@ -2786,7 +2786,7 @@
         <v>7739</v>
       </c>
       <c r="F76" t="n">
-        <v>-4.44</v>
+        <v>-3.52</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2794,10 +2794,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.023</v>
+        <v>0.006</v>
       </c>
       <c r="I76" t="n">
-        <v>-4.6875</v>
+        <v>-3.7658</v>
       </c>
     </row>
     <row r="77">
@@ -2817,7 +2817,7 @@
         <v>1748</v>
       </c>
       <c r="F77" t="n">
-        <v>-4.04</v>
+        <v>-3.28</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I77" t="n">
-        <v>-4.2921</v>
+        <v>-3.5303</v>
       </c>
     </row>
     <row r="78">
@@ -2848,7 +2848,7 @@
         <v>2010</v>
       </c>
       <c r="F78" t="n">
-        <v>-5.05</v>
+        <v>-4.29</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2856,10 +2856,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I78" t="n">
-        <v>-6.0505</v>
+        <v>-4.7888</v>
       </c>
     </row>
     <row r="79">
@@ -2879,7 +2879,7 @@
         <v>15741</v>
       </c>
       <c r="F79" t="n">
-        <v>-4.56</v>
+        <v>-3.29</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.046</v>
+        <v>0.013</v>
       </c>
       <c r="I79" t="n">
-        <v>-4.8083</v>
+        <v>-3.5399</v>
       </c>
     </row>
     <row r="80">
@@ -2910,7 +2910,7 @@
         <v>5539</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.57</v>
+        <v>-3.3</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2918,10 +2918,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.016</v>
+        <v>0.004</v>
       </c>
       <c r="I80" t="n">
-        <v>-4.8166</v>
+        <v>-3.5482</v>
       </c>
     </row>
     <row r="81">
@@ -2941,7 +2941,7 @@
         <v>961</v>
       </c>
       <c r="F81" t="n">
-        <v>-4.67</v>
+        <v>-3.4</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I81" t="n">
-        <v>-5.1699</v>
+        <v>-3.6515</v>
       </c>
     </row>
     <row r="82">
@@ -2972,7 +2972,7 @@
         <v>1648</v>
       </c>
       <c r="F82" t="n">
-        <v>-4.42</v>
+        <v>-3.66</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I82" t="n">
-        <v>-5.0217</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="83">
@@ -3003,7 +3003,7 @@
         <v>1076</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.79</v>
+        <v>-3.52</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3011,10 +3011,10 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I83" t="n">
-        <v>-5.2902</v>
+        <v>-3.7718</v>
       </c>
     </row>
     <row r="84">
@@ -3034,7 +3034,7 @@
         <v>1152</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.74</v>
+        <v>-3.98</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I84" t="n">
-        <v>-4.9931</v>
+        <v>-4.2313</v>
       </c>
     </row>
     <row r="85">
@@ -3065,7 +3065,7 @@
         <v>2846</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.88</v>
+        <v>-4.21</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I85" t="n">
-        <v>-5.4843</v>
+        <v>-4.7056</v>
       </c>
     </row>
     <row r="86">
@@ -3096,7 +3096,7 @@
         <v>2356</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.99</v>
+        <v>-3.72</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3104,10 +3104,10 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I86" t="n">
-        <v>-5.4868</v>
+        <v>-3.9684</v>
       </c>
     </row>
     <row r="87">
@@ -3127,7 +3127,7 @@
         <v>1727</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.65</v>
+        <v>-3.38</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I87" t="n">
-        <v>-5.1499</v>
+        <v>-3.6315</v>
       </c>
     </row>
     <row r="88">
@@ -3158,7 +3158,7 @@
         <v>1965</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.81</v>
+        <v>-3.05</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I88" t="n">
-        <v>-4.0612</v>
+        <v>-3.2994</v>
       </c>
     </row>
     <row r="89">
@@ -3189,7 +3189,7 @@
         <v>3052</v>
       </c>
       <c r="F89" t="n">
-        <v>-4</v>
+        <v>-3.23</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3197,10 +3197,10 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="I89" t="n">
-        <v>-4.2461</v>
+        <v>-3.4843</v>
       </c>
     </row>
     <row r="90">
@@ -3220,7 +3220,7 @@
         <v>2180</v>
       </c>
       <c r="F90" t="n">
-        <v>-4.22</v>
+        <v>-3.46</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I90" t="n">
-        <v>-4.4748</v>
+        <v>-3.7131</v>
       </c>
     </row>
     <row r="91">
@@ -3251,7 +3251,7 @@
         <v>2100</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.09</v>
+        <v>-3.82</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I91" t="n">
-        <v>-5.6854</v>
+        <v>-4.317</v>
       </c>
     </row>
     <row r="92">
@@ -3282,7 +3282,7 @@
         <v>2670</v>
       </c>
       <c r="F92" t="n">
-        <v>-4.68</v>
+        <v>-3.63</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3290,10 +3290,10 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I92" t="n">
-        <v>-4.9261</v>
+        <v>-3.8828</v>
       </c>
     </row>
     <row r="93">
@@ -3310,10 +3310,10 @@
         <v>-1.851197973097321</v>
       </c>
       <c r="E93" t="n">
-        <v>1234</v>
+        <v>1623</v>
       </c>
       <c r="F93" t="n">
-        <v>-4.75</v>
+        <v>-4.14</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3321,10 +3321,10 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I93" t="n">
-        <v>-5.3505</v>
+        <v>-4.6388</v>
       </c>
     </row>
     <row r="94">
@@ -3344,7 +3344,7 @@
         <v>1400</v>
       </c>
       <c r="F94" t="n">
-        <v>-4.15</v>
+        <v>-3.84</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3352,10 +3352,10 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I94" t="n">
-        <v>-4.6521</v>
+        <v>-4.0895</v>
       </c>
     </row>
     <row r="95">
@@ -3375,7 +3375,7 @@
         <v>2109</v>
       </c>
       <c r="F95" t="n">
-        <v>-4.66</v>
+        <v>-3.9</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3383,10 +3383,10 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I95" t="n">
-        <v>-4.9125</v>
+        <v>-4.1507</v>
       </c>
     </row>
     <row r="96">
@@ -3406,7 +3406,7 @@
         <v>1768</v>
       </c>
       <c r="F96" t="n">
-        <v>-4.62</v>
+        <v>-3.86</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3414,10 +3414,10 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I96" t="n">
-        <v>-4.8683</v>
+        <v>-4.1066</v>
       </c>
     </row>
     <row r="97">
@@ -3437,7 +3437,7 @@
         <v>13035</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.26</v>
+        <v>-3.5</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3445,10 +3445,10 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>0.038</v>
+        <v>0.01</v>
       </c>
       <c r="I97" t="n">
-        <v>-4.7601</v>
+        <v>-3.7484</v>
       </c>
     </row>
     <row r="98">
@@ -3468,7 +3468,7 @@
         <v>1393</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.54</v>
+        <v>-3.78</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3476,10 +3476,10 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I98" t="n">
-        <v>-4.7879</v>
+        <v>-4.0261</v>
       </c>
     </row>
     <row r="99">
@@ -3499,7 +3499,7 @@
         <v>1087</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.95</v>
+        <v>-3.29</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3507,10 +3507,10 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I99" t="n">
-        <v>-4.195</v>
+        <v>-3.5435</v>
       </c>
     </row>
     <row r="100">
@@ -3530,7 +3530,7 @@
         <v>1092</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.87</v>
+        <v>-3.22</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I100" t="n">
-        <v>-4.1187</v>
+        <v>-3.4672</v>
       </c>
     </row>
     <row r="101">
@@ -3561,7 +3561,7 @@
         <v>1158</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.06</v>
+        <v>-3.41</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3569,10 +3569,10 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I101" t="n">
-        <v>-4.3131</v>
+        <v>-3.6615</v>
       </c>
     </row>
     <row r="102">
@@ -3592,7 +3592,7 @@
         <v>2325</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.26</v>
+        <v>-3.06</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3600,10 +3600,10 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I102" t="n">
-        <v>-4.5127</v>
+        <v>-3.306</v>
       </c>
     </row>
     <row r="103">
@@ -3623,7 +3623,7 @@
         <v>1859</v>
       </c>
       <c r="F103" t="n">
-        <v>-4.46</v>
+        <v>-3.2</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3631,10 +3631,10 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I103" t="n">
-        <v>-4.9638</v>
+        <v>-3.4454</v>
       </c>
     </row>
     <row r="104">
@@ -3654,7 +3654,7 @@
         <v>2135</v>
       </c>
       <c r="F104" t="n">
-        <v>-4.07</v>
+        <v>-2.86</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3662,10 +3662,10 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I104" t="n">
-        <v>-4.3157</v>
+        <v>-3.109</v>
       </c>
     </row>
     <row r="105">
@@ -3685,7 +3685,7 @@
         <v>1185</v>
       </c>
       <c r="F105" t="n">
-        <v>-4.02</v>
+        <v>-2.81</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3693,10 +3693,10 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I105" t="n">
-        <v>-4.2652</v>
+        <v>-3.0585</v>
       </c>
     </row>
     <row r="106">
@@ -3716,7 +3716,7 @@
         <v>779</v>
       </c>
       <c r="F106" t="n">
-        <v>-4.48</v>
+        <v>-3.55</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3724,10 +3724,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I106" t="n">
-        <v>-4.7344</v>
+        <v>-3.7965</v>
       </c>
     </row>
     <row r="107">
@@ -3744,10 +3744,10 @@
         <v>-2.051593720013323</v>
       </c>
       <c r="E107" t="n">
-        <v>1659</v>
+        <v>2162</v>
       </c>
       <c r="F107" t="n">
-        <v>-3.93</v>
+        <v>-3.62</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3755,10 +3755,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="I107" t="n">
-        <v>-4.1785</v>
+        <v>-3.8659</v>
       </c>
     </row>
     <row r="108">
@@ -3778,7 +3778,7 @@
         <v>1044</v>
       </c>
       <c r="F108" t="n">
-        <v>-4.18</v>
+        <v>-3.41</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3786,10 +3786,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I108" t="n">
-        <v>-4.4333</v>
+        <v>-3.661</v>
       </c>
     </row>
     <row r="109">
@@ -3809,7 +3809,7 @@
         <v>2741</v>
       </c>
       <c r="F109" t="n">
-        <v>-4.28</v>
+        <v>-3.57</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3817,10 +3817,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I109" t="n">
-        <v>-4.7807</v>
+        <v>-3.8184</v>
       </c>
     </row>
     <row r="110">
@@ -3837,10 +3837,10 @@
         <v>-1.717931446627284</v>
       </c>
       <c r="E110" t="n">
-        <v>1618</v>
+        <v>1188</v>
       </c>
       <c r="F110" t="n">
-        <v>-3.46</v>
+        <v>-3.42</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3848,10 +3848,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I110" t="n">
-        <v>-3.7062</v>
+        <v>-3.6743</v>
       </c>
     </row>
     <row r="111">
@@ -3871,7 +3871,7 @@
         <v>3356</v>
       </c>
       <c r="F111" t="n">
-        <v>-3.88</v>
+        <v>-3.7</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="I111" t="n">
-        <v>-4.3816</v>
+        <v>-3.9543</v>
       </c>
     </row>
     <row r="112">
@@ -3902,7 +3902,7 @@
         <v>1111</v>
       </c>
       <c r="F112" t="n">
-        <v>-3.99</v>
+        <v>-3.34</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3910,10 +3910,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I112" t="n">
-        <v>-4.2375</v>
+        <v>-3.5859</v>
       </c>
     </row>
     <row r="113">
@@ -3930,10 +3930,10 @@
         <v>-1.866763984057282</v>
       </c>
       <c r="E113" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F113" t="n">
-        <v>-4.17</v>
+        <v>-3.52</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3941,10 +3941,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I113" t="n">
-        <v>-4.6703</v>
+        <v>-3.7688</v>
       </c>
     </row>
     <row r="114">
@@ -3964,7 +3964,7 @@
         <v>861</v>
       </c>
       <c r="F114" t="n">
-        <v>-3.59</v>
+        <v>-3.56</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3972,10 +3972,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I114" t="n">
-        <v>-4.0908</v>
+        <v>-3.8089</v>
       </c>
     </row>
     <row r="115">
@@ -3995,7 +3995,7 @@
         <v>10655</v>
       </c>
       <c r="F115" t="n">
-        <v>-3.26</v>
+        <v>-3.23</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4003,10 +4003,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.031</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I115" t="n">
-        <v>-3.5078</v>
+        <v>-3.4759</v>
       </c>
     </row>
     <row r="116">
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.025</v>
+        <v>0.007</v>
       </c>
       <c r="I116" t="n">
         <v>-3.777</v>
@@ -4057,7 +4057,7 @@
         <v>2606</v>
       </c>
       <c r="F117" t="n">
-        <v>-3.99</v>
+        <v>-3.68</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4065,10 +4065,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I117" t="n">
-        <v>-4.2421</v>
+        <v>-3.9296</v>
       </c>
     </row>
     <row r="118">
@@ -4088,7 +4088,7 @@
         <v>1480</v>
       </c>
       <c r="F118" t="n">
-        <v>-3.89</v>
+        <v>-3.58</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4096,10 +4096,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I118" t="n">
-        <v>-4.1443</v>
+        <v>-3.8318</v>
       </c>
     </row>
     <row r="119">
@@ -4119,7 +4119,7 @@
         <v>395</v>
       </c>
       <c r="F119" t="n">
-        <v>-3.82</v>
+        <v>-3.5</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-4.0673</v>
+        <v>-3.7547</v>
       </c>
     </row>
     <row r="120">
@@ -4150,7 +4150,7 @@
         <v>2209</v>
       </c>
       <c r="F120" t="n">
-        <v>-3.92</v>
+        <v>-3.4</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4158,10 +4158,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I120" t="n">
-        <v>-4.1653</v>
+        <v>-3.654</v>
       </c>
     </row>
     <row r="121">
@@ -4181,7 +4181,7 @@
         <v>4387</v>
       </c>
       <c r="F121" t="n">
-        <v>-5.04</v>
+        <v>-4.12</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4189,10 +4189,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.013</v>
+        <v>0.004</v>
       </c>
       <c r="I121" t="n">
-        <v>-5.2916</v>
+        <v>-4.37</v>
       </c>
     </row>
     <row r="122">
@@ -4212,7 +4212,7 @@
         <v>2049</v>
       </c>
       <c r="F122" t="n">
-        <v>-4.99</v>
+        <v>-4.07</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="H122" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I122" t="n">
-        <v>-5.2378</v>
+        <v>-4.3161</v>
       </c>
     </row>
     <row r="123">
@@ -4243,7 +4243,7 @@
         <v>686</v>
       </c>
       <c r="F123" t="n">
-        <v>-4.83</v>
+        <v>-4.07</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4251,10 +4251,10 @@
         </is>
       </c>
       <c r="H123" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I123" t="n">
-        <v>-5.085</v>
+        <v>-4.3232</v>
       </c>
     </row>
     <row r="124">
@@ -4274,7 +4274,7 @@
         <v>2126</v>
       </c>
       <c r="F124" t="n">
-        <v>-5.07</v>
+        <v>-4.01</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4282,10 +4282,10 @@
         </is>
       </c>
       <c r="H124" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I124" t="n">
-        <v>-5.3191</v>
+        <v>-4.2601</v>
       </c>
     </row>
     <row r="125">
@@ -4305,7 +4305,7 @@
         <v>4836</v>
       </c>
       <c r="F125" t="n">
-        <v>-4.32</v>
+        <v>-3.05</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4313,10 +4313,10 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>0.014</v>
+        <v>0.004</v>
       </c>
       <c r="I125" t="n">
-        <v>-4.5653</v>
+        <v>-3.2968</v>
       </c>
     </row>
     <row r="126">
@@ -4336,7 +4336,7 @@
         <v>762</v>
       </c>
       <c r="F126" t="n">
-        <v>-5.09</v>
+        <v>-3.73</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4344,10 +4344,10 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I126" t="n">
-        <v>-5.3366</v>
+        <v>-3.9817</v>
       </c>
     </row>
     <row r="127">
@@ -4367,7 +4367,7 @@
         <v>4983</v>
       </c>
       <c r="F127" t="n">
-        <v>-3.95</v>
+        <v>-3.3</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4375,10 +4375,10 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>0.015</v>
+        <v>0.004</v>
       </c>
       <c r="I127" t="n">
-        <v>-4.1976</v>
+        <v>-3.546</v>
       </c>
     </row>
     <row r="128">
@@ -4398,7 +4398,7 @@
         <v>4568</v>
       </c>
       <c r="F128" t="n">
-        <v>-5.86</v>
+        <v>-4.28</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4406,10 +4406,10 @@
         </is>
       </c>
       <c r="H128" t="n">
-        <v>0.013</v>
+        <v>0.004</v>
       </c>
       <c r="I128" t="n">
-        <v>-6.462</v>
+        <v>-4.777</v>
       </c>
     </row>
     <row r="129">
@@ -4429,7 +4429,7 @@
         <v>4931</v>
       </c>
       <c r="F129" t="n">
-        <v>-5.97</v>
+        <v>-4.38</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4437,10 +4437,10 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>0.014</v>
+        <v>0.004</v>
       </c>
       <c r="I129" t="n">
-        <v>-6.5678</v>
+        <v>-4.8829</v>
       </c>
     </row>
     <row r="130">
@@ -4460,7 +4460,7 @@
         <v>3894</v>
       </c>
       <c r="F130" t="n">
-        <v>-6.07</v>
+        <v>-4.49</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4468,10 +4468,10 @@
         </is>
       </c>
       <c r="H130" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="I130" t="n">
-        <v>-6.6737</v>
+        <v>-4.9888</v>
       </c>
     </row>
     <row r="131">
@@ -4491,7 +4491,7 @@
         <v>3197</v>
       </c>
       <c r="F131" t="n">
-        <v>-5.6</v>
+        <v>-4.02</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4499,10 +4499,10 @@
         </is>
       </c>
       <c r="H131" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.003</v>
       </c>
       <c r="I131" t="n">
-        <v>-6.1028</v>
+        <v>-4.2679</v>
       </c>
     </row>
     <row r="132">
@@ -4522,7 +4522,7 @@
         <v>4173</v>
       </c>
       <c r="F132" t="n">
-        <v>-5.59</v>
+        <v>-4.01</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4530,10 +4530,10 @@
         </is>
       </c>
       <c r="H132" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="I132" t="n">
-        <v>-6.0904</v>
+        <v>-4.2555</v>
       </c>
     </row>
     <row r="133">
@@ -4553,7 +4553,7 @@
         <v>3263</v>
       </c>
       <c r="F133" t="n">
-        <v>-6.1</v>
+        <v>-4.51</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4561,10 +4561,10 @@
         </is>
       </c>
       <c r="H133" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="I133" t="n">
-        <v>-6.348</v>
+        <v>-4.7631</v>
       </c>
     </row>
     <row r="134">
@@ -4584,7 +4584,7 @@
         <v>4327</v>
       </c>
       <c r="F134" t="n">
-        <v>-6.02</v>
+        <v>-4.43</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4592,10 +4592,10 @@
         </is>
       </c>
       <c r="H134" t="n">
-        <v>0.013</v>
+        <v>0.003</v>
       </c>
       <c r="I134" t="n">
-        <v>-6.2664</v>
+        <v>-4.6815</v>
       </c>
     </row>
     <row r="135">
@@ -4615,7 +4615,7 @@
         <v>2799</v>
       </c>
       <c r="F135" t="n">
-        <v>-6.25</v>
+        <v>-4.67</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4623,10 +4623,10 @@
         </is>
       </c>
       <c r="H135" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I135" t="n">
-        <v>-7.0015</v>
+        <v>-5.1666</v>
       </c>
     </row>
     <row r="136">
@@ -4646,7 +4646,7 @@
         <v>1561</v>
       </c>
       <c r="F136" t="n">
-        <v>-6.01</v>
+        <v>-4.43</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="H136" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I136" t="n">
-        <v>-6.2619</v>
+        <v>-4.677</v>
       </c>
     </row>
     <row r="137">
@@ -4677,7 +4677,7 @@
         <v>2260</v>
       </c>
       <c r="F137" t="n">
-        <v>-6.34</v>
+        <v>-4.76</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -4685,10 +4685,10 @@
         </is>
       </c>
       <c r="H137" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I137" t="n">
-        <v>-6.5911</v>
+        <v>-5.0062</v>
       </c>
     </row>
     <row r="138">
@@ -4708,7 +4708,7 @@
         <v>1226</v>
       </c>
       <c r="F138" t="n">
-        <v>-6.21</v>
+        <v>-4.63</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4716,10 +4716,10 @@
         </is>
       </c>
       <c r="H138" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I138" t="n">
-        <v>-6.4608</v>
+        <v>-4.8759</v>
       </c>
     </row>
     <row r="139">
@@ -4739,7 +4739,7 @@
         <v>1043</v>
       </c>
       <c r="F139" t="n">
-        <v>-6.32</v>
+        <v>-4.73</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4747,10 +4747,10 @@
         </is>
       </c>
       <c r="H139" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I139" t="n">
-        <v>-6.5674</v>
+        <v>-4.9825</v>
       </c>
     </row>
     <row r="140">
@@ -4770,7 +4770,7 @@
         <v>969</v>
       </c>
       <c r="F140" t="n">
-        <v>-6.49</v>
+        <v>-4.91</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="H140" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I140" t="n">
-        <v>-6.9928</v>
+        <v>-5.1579</v>
       </c>
     </row>
     <row r="141">
@@ -4801,7 +4801,7 @@
         <v>1487</v>
       </c>
       <c r="F141" t="n">
-        <v>-6.49</v>
+        <v>-4.9</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4809,10 +4809,10 @@
         </is>
       </c>
       <c r="H141" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I141" t="n">
-        <v>-6.9881</v>
+        <v>-5.1532</v>
       </c>
     </row>
     <row r="142">
@@ -4832,7 +4832,7 @@
         <v>777</v>
       </c>
       <c r="F142" t="n">
-        <v>-6.35</v>
+        <v>-4.76</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4840,10 +4840,10 @@
         </is>
       </c>
       <c r="H142" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I142" t="n">
-        <v>-6.5972</v>
+        <v>-5.0123</v>
       </c>
     </row>
     <row r="143">
@@ -4863,7 +4863,7 @@
         <v>1429</v>
       </c>
       <c r="F143" t="n">
-        <v>-6.27</v>
+        <v>-4.69</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4871,10 +4871,10 @@
         </is>
       </c>
       <c r="H143" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I143" t="n">
-        <v>-6.5204</v>
+        <v>-4.9355</v>
       </c>
     </row>
     <row r="144">
@@ -4894,7 +4894,7 @@
         <v>1064</v>
       </c>
       <c r="F144" t="n">
-        <v>-6.22</v>
+        <v>-4.64</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4902,10 +4902,10 @@
         </is>
       </c>
       <c r="H144" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I144" t="n">
-        <v>-6.4743</v>
+        <v>-4.8894</v>
       </c>
     </row>
     <row r="145">
@@ -4925,7 +4925,7 @@
         <v>2072</v>
       </c>
       <c r="F145" t="n">
-        <v>-6.36</v>
+        <v>-4.78</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -4933,10 +4933,10 @@
         </is>
       </c>
       <c r="H145" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I145" t="n">
-        <v>-6.6139</v>
+        <v>-5.029</v>
       </c>
     </row>
     <row r="146">
@@ -4956,7 +4956,7 @@
         <v>3747</v>
       </c>
       <c r="F146" t="n">
-        <v>-6.2</v>
+        <v>-4.61</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -4964,10 +4964,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="I146" t="n">
-        <v>-6.4475</v>
+        <v>-4.8626</v>
       </c>
     </row>
     <row r="147">
@@ -4987,7 +4987,7 @@
         <v>5131</v>
       </c>
       <c r="F147" t="n">
-        <v>-5.41</v>
+        <v>-3.83</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -4995,10 +4995,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.015</v>
+        <v>0.004</v>
       </c>
       <c r="I147" t="n">
-        <v>-5.6641</v>
+        <v>-4.0792</v>
       </c>
     </row>
     <row r="148">
@@ -5018,7 +5018,7 @@
         <v>1327</v>
       </c>
       <c r="F148" t="n">
-        <v>-5.34</v>
+        <v>-3.76</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I148" t="n">
-        <v>-5.5906</v>
+        <v>-4.0057</v>
       </c>
     </row>
     <row r="149">
@@ -5049,7 +5049,7 @@
         <v>1438</v>
       </c>
       <c r="F149" t="n">
-        <v>-5.42</v>
+        <v>-3.83</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5057,10 +5057,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I149" t="n">
-        <v>-5.6663</v>
+        <v>-4.0814</v>
       </c>
     </row>
     <row r="150">
@@ -5080,7 +5080,7 @@
         <v>4127</v>
       </c>
       <c r="F150" t="n">
-        <v>-5.09</v>
+        <v>-3.5</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5088,10 +5088,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="I150" t="n">
-        <v>-5.3373</v>
+        <v>-3.7524</v>
       </c>
     </row>
     <row r="151">
@@ -5111,7 +5111,7 @@
         <v>4737</v>
       </c>
       <c r="F151" t="n">
-        <v>-5.19</v>
+        <v>-3.61</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5119,10 +5119,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.014</v>
+        <v>0.004</v>
       </c>
       <c r="I151" t="n">
-        <v>-5.4419</v>
+        <v>-3.857</v>
       </c>
     </row>
     <row r="152">
@@ -5142,7 +5142,7 @@
         <v>1529</v>
       </c>
       <c r="F152" t="n">
-        <v>-6.62</v>
+        <v>-5.04</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5150,10 +5150,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I152" t="n">
-        <v>-7.1245</v>
+        <v>-5.2896</v>
       </c>
     </row>
     <row r="153">
@@ -5173,7 +5173,7 @@
         <v>3410</v>
       </c>
       <c r="F153" t="n">
-        <v>-6.05</v>
+        <v>-4.46</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="I153" t="n">
-        <v>-6.2989</v>
+        <v>-4.714</v>
       </c>
     </row>
     <row r="154">
@@ -5204,7 +5204,7 @@
         <v>3141</v>
       </c>
       <c r="F154" t="n">
-        <v>-6.22</v>
+        <v>-4.64</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5212,10 +5212,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.003</v>
       </c>
       <c r="I154" t="n">
-        <v>-6.4716</v>
+        <v>-4.8867</v>
       </c>
     </row>
     <row r="155">
@@ -5235,7 +5235,7 @@
         <v>1620</v>
       </c>
       <c r="F155" t="n">
-        <v>-6.39</v>
+        <v>-4.81</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5243,10 +5243,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I155" t="n">
-        <v>-7.1447</v>
+        <v>-5.3098</v>
       </c>
     </row>
     <row r="156">
@@ -5266,7 +5266,7 @@
         <v>2635</v>
       </c>
       <c r="F156" t="n">
-        <v>-6.03</v>
+        <v>-4.45</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I156" t="n">
-        <v>-6.2812</v>
+        <v>-4.6962</v>
       </c>
     </row>
     <row r="157">
@@ -5297,7 +5297,7 @@
         <v>1086</v>
       </c>
       <c r="F157" t="n">
-        <v>-6.4</v>
+        <v>-4.82</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5305,10 +5305,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I157" t="n">
-        <v>-6.6513</v>
+        <v>-5.0664</v>
       </c>
     </row>
     <row r="158">
@@ -5328,7 +5328,7 @@
         <v>2243</v>
       </c>
       <c r="F158" t="n">
-        <v>-6.53</v>
+        <v>-4.95</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I158" t="n">
-        <v>-7.2817</v>
+        <v>-5.4468</v>
       </c>
     </row>
     <row r="159">
@@ -5359,7 +5359,7 @@
         <v>3456</v>
       </c>
       <c r="F159" t="n">
-        <v>-6.6</v>
+        <v>-5.07</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5367,10 +5367,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="I159" t="n">
-        <v>-8.104799999999999</v>
+        <v>-6.0659</v>
       </c>
     </row>
     <row r="160">
@@ -5390,7 +5390,7 @@
         <v>5221</v>
       </c>
       <c r="F160" t="n">
-        <v>-6.51</v>
+        <v>-5.02</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5398,10 +5398,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.015</v>
+        <v>0.004</v>
       </c>
       <c r="I160" t="n">
-        <v>-8.0128</v>
+        <v>-6.0199</v>
       </c>
     </row>
     <row r="161">
@@ -5421,7 +5421,7 @@
         <v>2865</v>
       </c>
       <c r="F161" t="n">
-        <v>-6.42</v>
+        <v>-4.97</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5429,10 +5429,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I161" t="n">
-        <v>-7.9208</v>
+        <v>-5.7239</v>
       </c>
     </row>
     <row r="162">
@@ -5452,7 +5452,7 @@
         <v>2325</v>
       </c>
       <c r="F162" t="n">
-        <v>-6.33</v>
+        <v>-4.93</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5460,10 +5460,10 @@
         </is>
       </c>
       <c r="H162" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I162" t="n">
-        <v>-7.8287</v>
+        <v>-5.6779</v>
       </c>
     </row>
     <row r="163">
@@ -5483,7 +5483,7 @@
         <v>2672</v>
       </c>
       <c r="F163" t="n">
-        <v>-6.4</v>
+        <v>-4.82</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="H163" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I163" t="n">
-        <v>-6.651</v>
+        <v>-5.0661</v>
       </c>
     </row>
     <row r="164">
@@ -5514,7 +5514,7 @@
         <v>1005</v>
       </c>
       <c r="F164" t="n">
-        <v>-6.53</v>
+        <v>-4.95</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5522,10 +5522,10 @@
         </is>
       </c>
       <c r="H164" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I164" t="n">
-        <v>-6.7801</v>
+        <v>-5.1952</v>
       </c>
     </row>
     <row r="165">
@@ -5545,7 +5545,7 @@
         <v>1158</v>
       </c>
       <c r="F165" t="n">
-        <v>-6.14</v>
+        <v>-4.79</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -5553,10 +5553,10 @@
         </is>
       </c>
       <c r="H165" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I165" t="n">
-        <v>-7.1429</v>
+        <v>-5.2881</v>
       </c>
     </row>
     <row r="166">
@@ -5576,7 +5576,7 @@
         <v>1564</v>
       </c>
       <c r="F166" t="n">
-        <v>-6.05</v>
+        <v>-4.69</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -5584,10 +5584,10 @@
         </is>
       </c>
       <c r="H166" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I166" t="n">
-        <v>-7.0491</v>
+        <v>-5.1943</v>
       </c>
     </row>
     <row r="167">
@@ -5607,7 +5607,7 @@
         <v>7016</v>
       </c>
       <c r="F167" t="n">
-        <v>-7.13</v>
+        <v>-5.33</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -5615,10 +5615,10 @@
         </is>
       </c>
       <c r="H167" t="n">
-        <v>0.02</v>
+        <v>0.006</v>
       </c>
       <c r="I167" t="n">
-        <v>-9.125999999999999</v>
+        <v>-6.3265</v>
       </c>
     </row>
     <row r="168">
@@ -5638,7 +5638,7 @@
         <v>5956</v>
       </c>
       <c r="F168" t="n">
-        <v>-7.04</v>
+        <v>-5.28</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -5646,10 +5646,10 @@
         </is>
       </c>
       <c r="H168" t="n">
-        <v>0.017</v>
+        <v>0.005</v>
       </c>
       <c r="I168" t="n">
-        <v>-9.0402</v>
+        <v>-6.2836</v>
       </c>
     </row>
     <row r="169">
@@ -5669,7 +5669,7 @@
         <v>4957</v>
       </c>
       <c r="F169" t="n">
-        <v>-6.95</v>
+        <v>-5.24</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -5677,10 +5677,10 @@
         </is>
       </c>
       <c r="H169" t="n">
-        <v>0.014</v>
+        <v>0.004</v>
       </c>
       <c r="I169" t="n">
-        <v>-8.9543</v>
+        <v>-6.2407</v>
       </c>
     </row>
     <row r="170">
@@ -5700,7 +5700,7 @@
         <v>3691</v>
       </c>
       <c r="F170" t="n">
-        <v>-6.87</v>
+        <v>-5.2</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -5708,10 +5708,10 @@
         </is>
       </c>
       <c r="H170" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="I170" t="n">
-        <v>-8.868499999999999</v>
+        <v>-6.1977</v>
       </c>
     </row>
     <row r="171">
@@ -5731,7 +5731,7 @@
         <v>2571</v>
       </c>
       <c r="F171" t="n">
-        <v>-6.78</v>
+        <v>-5.15</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -5739,10 +5739,10 @@
         </is>
       </c>
       <c r="H171" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I171" t="n">
-        <v>-8.7827</v>
+        <v>-6.1548</v>
       </c>
     </row>
     <row r="172">
@@ -5762,7 +5762,7 @@
         <v>4866</v>
       </c>
       <c r="F172" t="n">
-        <v>-7.29</v>
+        <v>-5.41</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="H172" t="n">
-        <v>0.014</v>
+        <v>0.004</v>
       </c>
       <c r="I172" t="n">
-        <v>-9.289999999999999</v>
+        <v>-6.4085</v>
       </c>
     </row>
     <row r="173">
@@ -5793,7 +5793,7 @@
         <v>4576</v>
       </c>
       <c r="F173" t="n">
-        <v>-7.37</v>
+        <v>-5.45</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -5801,10 +5801,10 @@
         </is>
       </c>
       <c r="H173" t="n">
-        <v>0.013</v>
+        <v>0.004</v>
       </c>
       <c r="I173" t="n">
-        <v>-9.3682</v>
+        <v>-6.4476</v>
       </c>
     </row>
     <row r="174">
@@ -5824,7 +5824,7 @@
         <v>3865</v>
       </c>
       <c r="F174" t="n">
-        <v>-5.33</v>
+        <v>-4.18</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="H174" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="I174" t="n">
-        <v>-5.5828</v>
+        <v>-4.4308</v>
       </c>
     </row>
     <row r="175">
@@ -5855,7 +5855,7 @@
         <v>1486</v>
       </c>
       <c r="F175" t="n">
-        <v>-5.14</v>
+        <v>-3.99</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -5863,10 +5863,10 @@
         </is>
       </c>
       <c r="H175" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I175" t="n">
-        <v>-5.3897</v>
+        <v>-4.2376</v>
       </c>
     </row>
     <row r="176">
@@ -5886,7 +5886,7 @@
         <v>1490</v>
       </c>
       <c r="F176" t="n">
-        <v>-5.06</v>
+        <v>-3.9</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -5894,10 +5894,10 @@
         </is>
       </c>
       <c r="H176" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I176" t="n">
-        <v>-5.3065</v>
+        <v>-4.1544</v>
       </c>
     </row>
     <row r="177">
@@ -5917,7 +5917,7 @@
         <v>3763</v>
       </c>
       <c r="F177" t="n">
-        <v>-5.5</v>
+        <v>-4.35</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -5925,10 +5925,10 @@
         </is>
       </c>
       <c r="H177" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="I177" t="n">
-        <v>-6.0032</v>
+        <v>-4.6011</v>
       </c>
     </row>
     <row r="178">
@@ -5948,7 +5948,7 @@
         <v>1915</v>
       </c>
       <c r="F178" t="n">
-        <v>-5.86</v>
+        <v>-4.66</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -5956,10 +5956,10 @@
         </is>
       </c>
       <c r="H178" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I178" t="n">
-        <v>-6.1063</v>
+        <v>-4.9083</v>
       </c>
     </row>
     <row r="179">
@@ -5976,10 +5976,10 @@
         <v>-1.410637508235122</v>
       </c>
       <c r="E179" t="n">
-        <v>799</v>
+        <v>975</v>
       </c>
       <c r="F179" t="n">
-        <v>-5.75</v>
+        <v>-4.52</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -5987,10 +5987,10 @@
         </is>
       </c>
       <c r="H179" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I179" t="n">
-        <v>-6.0042</v>
+        <v>-4.7728</v>
       </c>
     </row>
     <row r="180">
@@ -6010,7 +6010,7 @@
         <v>1437</v>
       </c>
       <c r="F180" t="n">
-        <v>-5.83</v>
+        <v>-4.63</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -6018,10 +6018,10 @@
         </is>
       </c>
       <c r="H180" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I180" t="n">
-        <v>-6.0763</v>
+        <v>-4.8784</v>
       </c>
     </row>
     <row r="181">
@@ -6041,7 +6041,7 @@
         <v>1082</v>
       </c>
       <c r="F181" t="n">
-        <v>-5.91</v>
+        <v>-4.67</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -6049,10 +6049,10 @@
         </is>
       </c>
       <c r="H181" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I181" t="n">
-        <v>-6.1559</v>
+        <v>-4.9246</v>
       </c>
     </row>
     <row r="182">
@@ -6072,7 +6072,7 @@
         <v>1079</v>
       </c>
       <c r="F182" t="n">
-        <v>-5.97</v>
+        <v>-4.7</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -6080,10 +6080,10 @@
         </is>
       </c>
       <c r="H182" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I182" t="n">
-        <v>-6.2225</v>
+        <v>-4.9462</v>
       </c>
     </row>
     <row r="183">
@@ -6103,7 +6103,7 @@
         <v>955</v>
       </c>
       <c r="F183" t="n">
-        <v>-6.01</v>
+        <v>-4.68</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -6111,10 +6111,10 @@
         </is>
       </c>
       <c r="H183" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I183" t="n">
-        <v>-6.2567</v>
+        <v>-4.9322</v>
       </c>
     </row>
     <row r="184">
@@ -6134,7 +6134,7 @@
         <v>967</v>
       </c>
       <c r="F184" t="n">
-        <v>-6.09</v>
+        <v>-4.77</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="H184" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I184" t="n">
-        <v>-6.3414</v>
+        <v>-5.0168</v>
       </c>
     </row>
     <row r="185">
@@ -6165,7 +6165,7 @@
         <v>660</v>
       </c>
       <c r="F185" t="n">
-        <v>-6.02</v>
+        <v>-4.74</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -6173,10 +6173,10 @@
         </is>
       </c>
       <c r="H185" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I185" t="n">
-        <v>-6.2677</v>
+        <v>-4.9914</v>
       </c>
     </row>
     <row r="186">
@@ -6196,7 +6196,7 @@
         <v>1309</v>
       </c>
       <c r="F186" t="n">
-        <v>-5.03</v>
+        <v>-3.67</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -6204,10 +6204,10 @@
         </is>
       </c>
       <c r="H186" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I186" t="n">
-        <v>-5.2786</v>
+        <v>-3.9237</v>
       </c>
     </row>
     <row r="187">
@@ -6227,7 +6227,7 @@
         <v>1424</v>
       </c>
       <c r="F187" t="n">
-        <v>-5.26</v>
+        <v>-3.91</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -6235,10 +6235,10 @@
         </is>
       </c>
       <c r="H187" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I187" t="n">
-        <v>-5.5134</v>
+        <v>-4.1586</v>
       </c>
     </row>
     <row r="188">
@@ -6258,7 +6258,7 @@
         <v>1599</v>
       </c>
       <c r="F188" t="n">
-        <v>-5.17</v>
+        <v>-3.81</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -6266,10 +6266,10 @@
         </is>
       </c>
       <c r="H188" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I188" t="n">
-        <v>-5.4188</v>
+        <v>-4.0639</v>
       </c>
     </row>
     <row r="189">
@@ -6289,7 +6289,7 @@
         <v>1778</v>
       </c>
       <c r="F189" t="n">
-        <v>-5.65</v>
+        <v>-4.5</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -6297,10 +6297,10 @@
         </is>
       </c>
       <c r="H189" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I189" t="n">
-        <v>-6.1528</v>
+        <v>-4.7507</v>
       </c>
     </row>
     <row r="190">
@@ -6320,7 +6320,7 @@
         <v>1861</v>
       </c>
       <c r="F190" t="n">
-        <v>-5.74</v>
+        <v>-4.59</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -6328,10 +6328,10 @@
         </is>
       </c>
       <c r="H190" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I190" t="n">
-        <v>-6.242</v>
+        <v>-4.8399</v>
       </c>
     </row>
     <row r="191">
@@ -6351,7 +6351,7 @@
         <v>6215</v>
       </c>
       <c r="F191" t="n">
-        <v>-5.21</v>
+        <v>-4.15</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -6359,10 +6359,10 @@
         </is>
       </c>
       <c r="H191" t="n">
-        <v>0.018</v>
+        <v>0.005</v>
       </c>
       <c r="I191" t="n">
-        <v>-5.455</v>
+        <v>-4.3961</v>
       </c>
     </row>
     <row r="192">
@@ -6382,7 +6382,7 @@
         <v>4036</v>
       </c>
       <c r="F192" t="n">
-        <v>-5.74</v>
+        <v>-4.63</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -6390,10 +6390,10 @@
         </is>
       </c>
       <c r="H192" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="I192" t="n">
-        <v>-6.988</v>
+        <v>-5.2325</v>
       </c>
     </row>
     <row r="193">
@@ -6413,7 +6413,7 @@
         <v>1563</v>
       </c>
       <c r="F193" t="n">
-        <v>-5.13</v>
+        <v>-4.07</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="H193" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I193" t="n">
-        <v>-5.3819</v>
+        <v>-4.3229</v>
       </c>
     </row>
     <row r="194">
@@ -6444,7 +6444,7 @@
         <v>1224</v>
       </c>
       <c r="F194" t="n">
-        <v>-5.28</v>
+        <v>-4.22</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -6452,10 +6452,10 @@
         </is>
       </c>
       <c r="H194" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I194" t="n">
-        <v>-5.5312</v>
+        <v>-4.4723</v>
       </c>
     </row>
     <row r="195">
@@ -6475,7 +6475,7 @@
         <v>1290</v>
       </c>
       <c r="F195" t="n">
-        <v>-5.37</v>
+        <v>-4.31</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -6483,10 +6483,10 @@
         </is>
       </c>
       <c r="H195" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I195" t="n">
-        <v>-5.6177</v>
+        <v>-4.5588</v>
       </c>
     </row>
     <row r="196">
@@ -6506,7 +6506,7 @@
         <v>1098</v>
       </c>
       <c r="F196" t="n">
-        <v>-5.26</v>
+        <v>-3.91</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -6514,10 +6514,10 @@
         </is>
       </c>
       <c r="H196" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I196" t="n">
-        <v>-5.5129</v>
+        <v>-4.158</v>
       </c>
     </row>
     <row r="197">
@@ -6537,7 +6537,7 @@
         <v>1121</v>
       </c>
       <c r="F197" t="n">
-        <v>-6.05</v>
+        <v>-4.69</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -6545,10 +6545,10 @@
         </is>
       </c>
       <c r="H197" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I197" t="n">
-        <v>-6.2991</v>
+        <v>-4.9442</v>
       </c>
     </row>
     <row r="198">
@@ -6568,7 +6568,7 @@
         <v>1861</v>
       </c>
       <c r="F198" t="n">
-        <v>-5.87</v>
+        <v>-4.51</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -6576,10 +6576,10 @@
         </is>
       </c>
       <c r="H198" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I198" t="n">
-        <v>-6.1179</v>
+        <v>-4.763</v>
       </c>
     </row>
     <row r="199">
@@ -6599,7 +6599,7 @@
         <v>1743</v>
       </c>
       <c r="F199" t="n">
-        <v>-5.86</v>
+        <v>-4.51</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -6607,10 +6607,10 @@
         </is>
       </c>
       <c r="H199" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I199" t="n">
-        <v>-6.1124</v>
+        <v>-4.7575</v>
       </c>
     </row>
     <row r="200">
@@ -6630,7 +6630,7 @@
         <v>2029</v>
       </c>
       <c r="F200" t="n">
-        <v>-5.42</v>
+        <v>-4.07</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -6638,10 +6638,10 @@
         </is>
       </c>
       <c r="H200" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I200" t="n">
-        <v>-5.6731</v>
+        <v>-4.3183</v>
       </c>
     </row>
     <row r="201">
@@ -6661,7 +6661,7 @@
         <v>975</v>
       </c>
       <c r="F201" t="n">
-        <v>-5.24</v>
+        <v>-3.88</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -6669,10 +6669,10 @@
         </is>
       </c>
       <c r="H201" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I201" t="n">
-        <v>-5.4874</v>
+        <v>-4.1325</v>
       </c>
     </row>
     <row r="202">
@@ -6692,7 +6692,7 @@
         <v>1334</v>
       </c>
       <c r="F202" t="n">
-        <v>-5.42</v>
+        <v>-4.06</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -6700,10 +6700,10 @@
         </is>
       </c>
       <c r="H202" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I202" t="n">
-        <v>-5.6658</v>
+        <v>-4.3109</v>
       </c>
     </row>
     <row r="203">
@@ -6723,7 +6723,7 @@
         <v>1780</v>
       </c>
       <c r="F203" t="n">
-        <v>-5.51</v>
+        <v>-4.16</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -6731,10 +6731,10 @@
         </is>
       </c>
       <c r="H203" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I203" t="n">
-        <v>-5.7617</v>
+        <v>-4.4069</v>
       </c>
     </row>
     <row r="204">
@@ -6754,7 +6754,7 @@
         <v>1439</v>
       </c>
       <c r="F204" t="n">
-        <v>-5.61</v>
+        <v>-4.25</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -6762,10 +6762,10 @@
         </is>
       </c>
       <c r="H204" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I204" t="n">
-        <v>-5.8577</v>
+        <v>-4.5028</v>
       </c>
     </row>
     <row r="205">
@@ -6785,7 +6785,7 @@
         <v>962</v>
       </c>
       <c r="F205" t="n">
-        <v>-5.88</v>
+        <v>-4.53</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -6793,10 +6793,10 @@
         </is>
       </c>
       <c r="H205" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I205" t="n">
-        <v>-6.1307</v>
+        <v>-4.7759</v>
       </c>
     </row>
     <row r="206">
@@ -6816,7 +6816,7 @@
         <v>1797</v>
       </c>
       <c r="F206" t="n">
-        <v>-5.79</v>
+        <v>-4.43</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -6824,10 +6824,10 @@
         </is>
       </c>
       <c r="H206" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I206" t="n">
-        <v>-6.2895</v>
+        <v>-4.6846</v>
       </c>
     </row>
     <row r="207">
@@ -6847,7 +6847,7 @@
         <v>1438</v>
       </c>
       <c r="F207" t="n">
-        <v>-5.6</v>
+        <v>-4.24</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -6855,10 +6855,10 @@
         </is>
       </c>
       <c r="H207" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I207" t="n">
-        <v>-5.8471</v>
+        <v>-4.4923</v>
       </c>
     </row>
     <row r="208">
@@ -6878,7 +6878,7 @@
         <v>1648</v>
       </c>
       <c r="F208" t="n">
-        <v>-5.11</v>
+        <v>-3.75</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -6886,10 +6886,10 @@
         </is>
       </c>
       <c r="H208" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I208" t="n">
-        <v>-5.3552</v>
+        <v>-4.0003</v>
       </c>
     </row>
     <row r="209">
@@ -6909,7 +6909,7 @@
         <v>1641</v>
       </c>
       <c r="F209" t="n">
-        <v>-5.33</v>
+        <v>-3.97</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -6917,10 +6917,10 @@
         </is>
       </c>
       <c r="H209" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I209" t="n">
-        <v>-5.8273</v>
+        <v>-4.2224</v>
       </c>
     </row>
     <row r="210">
@@ -6940,7 +6940,7 @@
         <v>3283</v>
       </c>
       <c r="F210" t="n">
-        <v>-5.42</v>
+        <v>-4.06</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -6948,10 +6948,10 @@
         </is>
       </c>
       <c r="H210" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="I210" t="n">
-        <v>-5.9185</v>
+        <v>-4.3137</v>
       </c>
     </row>
     <row r="211">
@@ -6971,7 +6971,7 @@
         <v>4191</v>
       </c>
       <c r="F211" t="n">
-        <v>-5.51</v>
+        <v>-4.15</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -6979,10 +6979,10 @@
         </is>
       </c>
       <c r="H211" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="I211" t="n">
-        <v>-6.0098</v>
+        <v>-4.4049</v>
       </c>
     </row>
     <row r="212">
@@ -7002,7 +7002,7 @@
         <v>3763</v>
       </c>
       <c r="F212" t="n">
-        <v>-5.13</v>
+        <v>-3.78</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -7010,10 +7010,10 @@
         </is>
       </c>
       <c r="H212" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="I212" t="n">
-        <v>-5.3814</v>
+        <v>-4.0265</v>
       </c>
     </row>
     <row r="213">
@@ -7033,7 +7033,7 @@
         <v>2353</v>
       </c>
       <c r="F213" t="n">
-        <v>-5.38</v>
+        <v>-4.32</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -7041,10 +7041,10 @@
         </is>
       </c>
       <c r="H213" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I213" t="n">
-        <v>-5.8785</v>
+        <v>-4.5695</v>
       </c>
     </row>
     <row r="214">
@@ -7064,7 +7064,7 @@
         <v>2462</v>
       </c>
       <c r="F214" t="n">
-        <v>-5.46</v>
+        <v>-4.4</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -7072,10 +7072,10 @@
         </is>
       </c>
       <c r="H214" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I214" t="n">
-        <v>-5.9634</v>
+        <v>-4.6545</v>
       </c>
     </row>
     <row r="215">
@@ -7095,7 +7095,7 @@
         <v>2350</v>
       </c>
       <c r="F215" t="n">
-        <v>-5.55</v>
+        <v>-4.49</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -7103,10 +7103,10 @@
         </is>
       </c>
       <c r="H215" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I215" t="n">
-        <v>-5.7996</v>
+        <v>-4.7406</v>
       </c>
     </row>
     <row r="216">
@@ -7126,7 +7126,7 @@
         <v>1361</v>
       </c>
       <c r="F216" t="n">
-        <v>-5.39</v>
+        <v>-4.34</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -7134,10 +7134,10 @@
         </is>
       </c>
       <c r="H216" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I216" t="n">
-        <v>-5.6442</v>
+        <v>-4.5853</v>
       </c>
     </row>
     <row r="217">
@@ -7157,7 +7157,7 @@
         <v>1593</v>
       </c>
       <c r="F217" t="n">
-        <v>-5.78</v>
+        <v>-4.43</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -7165,10 +7165,10 @@
         </is>
       </c>
       <c r="H217" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I217" t="n">
-        <v>-6.0312</v>
+        <v>-4.6763</v>
       </c>
     </row>
     <row r="218">
@@ -7188,7 +7188,7 @@
         <v>1898</v>
       </c>
       <c r="F218" t="n">
-        <v>-5.69</v>
+        <v>-4.33</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -7196,10 +7196,10 @@
         </is>
       </c>
       <c r="H218" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I218" t="n">
-        <v>-5.9371</v>
+        <v>-4.5823</v>
       </c>
     </row>
     <row r="219">
@@ -7219,7 +7219,7 @@
         <v>2102</v>
       </c>
       <c r="F219" t="n">
-        <v>-5.29</v>
+        <v>-3.93</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="H219" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I219" t="n">
-        <v>-5.538</v>
+        <v>-4.1831</v>
       </c>
     </row>
     <row r="220">
@@ -7247,10 +7247,10 @@
         <v>-1.771507590474135</v>
       </c>
       <c r="E220" t="n">
-        <v>2046</v>
+        <v>1564</v>
       </c>
       <c r="F220" t="n">
-        <v>-5.31</v>
+        <v>-3.95</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -7258,10 +7258,10 @@
         </is>
       </c>
       <c r="H220" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="I220" t="n">
-        <v>-5.5567</v>
+        <v>-4.2019</v>
       </c>
     </row>
     <row r="221">
@@ -7278,10 +7278,10 @@
         <v>-1.572418157518898</v>
       </c>
       <c r="E221" t="n">
-        <v>900</v>
+        <v>1142</v>
       </c>
       <c r="F221" t="n">
-        <v>-5.32</v>
+        <v>-3.97</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -7289,10 +7289,10 @@
         </is>
       </c>
       <c r="H221" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I221" t="n">
-        <v>-5.5725</v>
+        <v>-4.2176</v>
       </c>
     </row>
     <row r="222">
@@ -7309,10 +7309,10 @@
         <v>-1.503821134089527</v>
       </c>
       <c r="E222" t="n">
-        <v>1253</v>
+        <v>1627</v>
       </c>
       <c r="F222" t="n">
-        <v>-5.29</v>
+        <v>-4.36</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -7320,10 +7320,10 @@
         </is>
       </c>
       <c r="H222" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I222" t="n">
-        <v>-5.5365</v>
+        <v>-4.6149</v>
       </c>
     </row>
     <row r="223">
@@ -7340,10 +7340,10 @@
         <v>-1.576422652625466</v>
       </c>
       <c r="E223" t="n">
-        <v>622</v>
+        <v>790</v>
       </c>
       <c r="F223" t="n">
-        <v>-5.32</v>
+        <v>-3.97</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -7351,10 +7351,10 @@
         </is>
       </c>
       <c r="H223" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I223" t="n">
-        <v>-5.575</v>
+        <v>-4.2201</v>
       </c>
     </row>
     <row r="224">
@@ -7371,10 +7371,10 @@
         <v>-1.511830124302663</v>
       </c>
       <c r="E224" t="n">
-        <v>904</v>
+        <v>1174</v>
       </c>
       <c r="F224" t="n">
-        <v>-4.97</v>
+        <v>-4.21</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -7382,10 +7382,10 @@
         </is>
       </c>
       <c r="H224" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I224" t="n">
-        <v>-5.2193</v>
+        <v>-4.4575</v>
       </c>
     </row>
     <row r="225">
@@ -7405,7 +7405,7 @@
         <v>2402</v>
       </c>
       <c r="F225" t="n">
-        <v>-5.44</v>
+        <v>-4.09</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -7413,10 +7413,10 @@
         </is>
       </c>
       <c r="H225" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I225" t="n">
-        <v>-6.1919</v>
+        <v>-4.5871</v>
       </c>
     </row>
     <row r="226">
@@ -7436,7 +7436,7 @@
         <v>2557</v>
       </c>
       <c r="F226" t="n">
-        <v>-5.52</v>
+        <v>-4.16</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -7444,10 +7444,10 @@
         </is>
       </c>
       <c r="H226" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I226" t="n">
-        <v>-6.2696</v>
+        <v>-4.6647</v>
       </c>
     </row>
     <row r="227">
@@ -7467,7 +7467,7 @@
         <v>2162</v>
       </c>
       <c r="F227" t="n">
-        <v>-5.46</v>
+        <v>-4.49</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -7475,10 +7475,10 @@
         </is>
       </c>
       <c r="H227" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I227" t="n">
-        <v>-6.4618</v>
+        <v>-4.9944</v>
       </c>
     </row>
     <row r="228">
@@ -7498,7 +7498,7 @@
         <v>2136</v>
       </c>
       <c r="F228" t="n">
-        <v>-5.55</v>
+        <v>-4.54</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="H228" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I228" t="n">
-        <v>-6.5533</v>
+        <v>-5.1402</v>
       </c>
     </row>
     <row r="229">
@@ -7529,7 +7529,7 @@
         <v>1342</v>
       </c>
       <c r="F229" t="n">
-        <v>-5.26</v>
+        <v>-4.34</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="H229" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I229" t="n">
-        <v>-5.5107</v>
+        <v>-4.5891</v>
       </c>
     </row>
     <row r="230">
@@ -7560,7 +7560,7 @@
         <v>2357</v>
       </c>
       <c r="F230" t="n">
-        <v>-5.15</v>
+        <v>-4.23</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -7568,10 +7568,10 @@
         </is>
       </c>
       <c r="H230" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I230" t="n">
-        <v>-5.4012</v>
+        <v>-4.4795</v>
       </c>
     </row>
     <row r="231">
@@ -7591,7 +7591,7 @@
         <v>1384</v>
       </c>
       <c r="F231" t="n">
-        <v>-5.29</v>
+        <v>-4.37</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -7599,10 +7599,10 @@
         </is>
       </c>
       <c r="H231" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I231" t="n">
-        <v>-5.5406</v>
+        <v>-4.619</v>
       </c>
     </row>
     <row r="232">
@@ -7622,7 +7622,7 @@
         <v>2123</v>
       </c>
       <c r="F232" t="n">
-        <v>-5.21</v>
+        <v>-4.29</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="H232" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I232" t="n">
-        <v>-5.461</v>
+        <v>-4.5394</v>
       </c>
     </row>
     <row r="233">
@@ -7653,7 +7653,7 @@
         <v>1481</v>
       </c>
       <c r="F233" t="n">
-        <v>-5.28</v>
+        <v>-4.36</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -7661,10 +7661,10 @@
         </is>
       </c>
       <c r="H233" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I233" t="n">
-        <v>-5.7783</v>
+        <v>-4.6066</v>
       </c>
     </row>
     <row r="234">
@@ -7684,7 +7684,7 @@
         <v>1587</v>
       </c>
       <c r="F234" t="n">
-        <v>-5.29</v>
+        <v>-4.41</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -7692,10 +7692,10 @@
         </is>
       </c>
       <c r="H234" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I234" t="n">
-        <v>-6.2903</v>
+        <v>-4.9087</v>
       </c>
     </row>
     <row r="235">
@@ -7715,7 +7715,7 @@
         <v>3026</v>
       </c>
       <c r="F235" t="n">
-        <v>-5.21</v>
+        <v>-4.37</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="H235" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="I235" t="n">
-        <v>-6.2104</v>
+        <v>-4.8687</v>
       </c>
     </row>
     <row r="236">
@@ -7746,7 +7746,7 @@
         <v>1951</v>
       </c>
       <c r="F236" t="n">
-        <v>-5.13</v>
+        <v>-4.33</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -7754,10 +7754,10 @@
         </is>
       </c>
       <c r="H236" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I236" t="n">
-        <v>-6.1305</v>
+        <v>-4.8287</v>
       </c>
     </row>
     <row r="237">
@@ -7777,7 +7777,7 @@
         <v>2776</v>
       </c>
       <c r="F237" t="n">
-        <v>-4.6</v>
+        <v>-3.68</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -7785,10 +7785,10 @@
         </is>
       </c>
       <c r="H237" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I237" t="n">
-        <v>-4.8503</v>
+        <v>-3.9287</v>
       </c>
     </row>
     <row r="238">
@@ -7808,7 +7808,7 @@
         <v>1373</v>
       </c>
       <c r="F238" t="n">
-        <v>-4.67</v>
+        <v>-3.75</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -7816,10 +7816,10 @@
         </is>
       </c>
       <c r="H238" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I238" t="n">
-        <v>-4.9249</v>
+        <v>-4.0033</v>
       </c>
     </row>
     <row r="239">
@@ -7839,7 +7839,7 @@
         <v>1902</v>
       </c>
       <c r="F239" t="n">
-        <v>-5.69</v>
+        <v>-4.34</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -7847,10 +7847,10 @@
         </is>
       </c>
       <c r="H239" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I239" t="n">
-        <v>-6.4399</v>
+        <v>-4.8351</v>
       </c>
     </row>
     <row r="240">
@@ -7870,7 +7870,7 @@
         <v>1870</v>
       </c>
       <c r="F240" t="n">
-        <v>-5.78</v>
+        <v>-4.43</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -7878,10 +7878,10 @@
         </is>
       </c>
       <c r="H240" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I240" t="n">
-        <v>-6.5326</v>
+        <v>-4.9277</v>
       </c>
     </row>
     <row r="241">
@@ -7901,7 +7901,7 @@
         <v>1991</v>
       </c>
       <c r="F241" t="n">
-        <v>-5.08</v>
+        <v>-4.15</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -7909,10 +7909,10 @@
         </is>
       </c>
       <c r="H241" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I241" t="n">
-        <v>-5.5753</v>
+        <v>-4.4036</v>
       </c>
     </row>
     <row r="242">
@@ -7932,7 +7932,7 @@
         <v>3080</v>
       </c>
       <c r="F242" t="n">
-        <v>-4.96</v>
+        <v>-4.04</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -7940,10 +7940,10 @@
         </is>
       </c>
       <c r="H242" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="I242" t="n">
-        <v>-5.4643</v>
+        <v>-4.2926</v>
       </c>
     </row>
     <row r="243">
@@ -7963,7 +7963,7 @@
         <v>1303</v>
       </c>
       <c r="F243" t="n">
-        <v>-3.75</v>
+        <v>-2.99</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -7971,10 +7971,10 @@
         </is>
       </c>
       <c r="H243" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I243" t="n">
-        <v>-4.0016</v>
+        <v>-3.2398</v>
       </c>
     </row>
     <row r="244">
@@ -7994,7 +7994,7 @@
         <v>804</v>
       </c>
       <c r="F244" t="n">
-        <v>-5.05</v>
+        <v>-4.13</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -8002,10 +8002,10 @@
         </is>
       </c>
       <c r="H244" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I244" t="n">
-        <v>-5.2979</v>
+        <v>-4.3762</v>
       </c>
     </row>
     <row r="245">
@@ -8025,7 +8025,7 @@
         <v>3018</v>
       </c>
       <c r="F245" t="n">
-        <v>-4.75</v>
+        <v>-3.83</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -8033,10 +8033,10 @@
         </is>
       </c>
       <c r="H245" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="I245" t="n">
-        <v>-5.2493</v>
+        <v>-4.0777</v>
       </c>
     </row>
     <row r="246">
@@ -8056,7 +8056,7 @@
         <v>3715</v>
       </c>
       <c r="F246" t="n">
-        <v>-4.65</v>
+        <v>-3.72</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -8064,10 +8064,10 @@
         </is>
       </c>
       <c r="H246" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="I246" t="n">
-        <v>-4.8954</v>
+        <v>-3.9738</v>
       </c>
     </row>
     <row r="247">
@@ -8087,7 +8087,7 @@
         <v>3878</v>
       </c>
       <c r="F247" t="n">
-        <v>-4.54</v>
+        <v>-3.62</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -8095,10 +8095,10 @@
         </is>
       </c>
       <c r="H247" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="I247" t="n">
-        <v>-4.7914</v>
+        <v>-3.8698</v>
       </c>
     </row>
     <row r="248">
@@ -8118,7 +8118,7 @@
         <v>1607</v>
       </c>
       <c r="F248" t="n">
-        <v>-3.74</v>
+        <v>-2.98</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -8126,10 +8126,10 @@
         </is>
       </c>
       <c r="H248" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I248" t="n">
-        <v>-3.9894</v>
+        <v>-3.2277</v>
       </c>
     </row>
     <row r="249">
@@ -8149,7 +8149,7 @@
         <v>1919</v>
       </c>
       <c r="F249" t="n">
-        <v>-4.13</v>
+        <v>-3.37</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -8157,10 +8157,10 @@
         </is>
       </c>
       <c r="H249" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I249" t="n">
-        <v>-4.3835</v>
+        <v>-3.6217</v>
       </c>
     </row>
     <row r="250">
@@ -8180,7 +8180,7 @@
         <v>492</v>
       </c>
       <c r="F250" t="n">
-        <v>-4.94</v>
+        <v>-4.18</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -8188,10 +8188,10 @@
         </is>
       </c>
       <c r="H250" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>-5.1927</v>
+        <v>-4.431</v>
       </c>
     </row>
     <row r="251">
@@ -8211,7 +8211,7 @@
         <v>2492</v>
       </c>
       <c r="F251" t="n">
-        <v>-4.95</v>
+        <v>-4.18</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -8219,10 +8219,10 @@
         </is>
       </c>
       <c r="H251" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I251" t="n">
-        <v>-5.5457</v>
+        <v>-4.684</v>
       </c>
     </row>
     <row r="252">
@@ -8242,7 +8242,7 @@
         <v>3806</v>
       </c>
       <c r="F252" t="n">
-        <v>-4.84</v>
+        <v>-4.08</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -8250,10 +8250,10 @@
         </is>
       </c>
       <c r="H252" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="I252" t="n">
-        <v>-5.4409</v>
+        <v>-4.5792</v>
       </c>
     </row>
     <row r="253">
@@ -8273,7 +8273,7 @@
         <v>3574</v>
       </c>
       <c r="F253" t="n">
-        <v>-4.74</v>
+        <v>-3.97</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -8281,10 +8281,10 @@
         </is>
       </c>
       <c r="H253" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="I253" t="n">
-        <v>-5.3361</v>
+        <v>-4.4744</v>
       </c>
     </row>
     <row r="254">
@@ -8304,7 +8304,7 @@
         <v>3106</v>
       </c>
       <c r="F254" t="n">
-        <v>-4.63</v>
+        <v>-3.87</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -8312,10 +8312,10 @@
         </is>
       </c>
       <c r="H254" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="I254" t="n">
-        <v>-5.2313</v>
+        <v>-4.3696</v>
       </c>
     </row>
     <row r="255">
@@ -8335,7 +8335,7 @@
         <v>2531</v>
       </c>
       <c r="F255" t="n">
-        <v>-4.53</v>
+        <v>-3.76</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -8343,10 +8343,10 @@
         </is>
       </c>
       <c r="H255" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I255" t="n">
-        <v>-5.1265</v>
+        <v>-4.2648</v>
       </c>
     </row>
     <row r="256">
@@ -8366,7 +8366,7 @@
         <v>929</v>
       </c>
       <c r="F256" t="n">
-        <v>-4.95</v>
+        <v>-4.19</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -8374,10 +8374,10 @@
         </is>
       </c>
       <c r="H256" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I256" t="n">
-        <v>-5.198</v>
+        <v>-4.4363</v>
       </c>
     </row>
     <row r="257">
@@ -8397,7 +8397,7 @@
         <v>1699</v>
       </c>
       <c r="F257" t="n">
-        <v>-4.85</v>
+        <v>-4.08</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -8405,10 +8405,10 @@
         </is>
       </c>
       <c r="H257" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I257" t="n">
-        <v>-5.0955</v>
+        <v>-4.3338</v>
       </c>
     </row>
     <row r="258">
@@ -8428,7 +8428,7 @@
         <v>2319</v>
       </c>
       <c r="F258" t="n">
-        <v>-4.97</v>
+        <v>-4.25</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -8436,10 +8436,10 @@
         </is>
       </c>
       <c r="H258" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I258" t="n">
-        <v>-5.5674</v>
+        <v>-4.7472</v>
       </c>
     </row>
     <row r="259">
@@ -8459,7 +8459,7 @@
         <v>1219</v>
       </c>
       <c r="F259" t="n">
-        <v>-4.61</v>
+        <v>-3.35</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -8467,10 +8467,10 @@
         </is>
       </c>
       <c r="H259" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I259" t="n">
-        <v>-5.1141</v>
+        <v>-3.5957</v>
       </c>
     </row>
     <row r="260">
@@ -8490,7 +8490,7 @@
         <v>1077</v>
       </c>
       <c r="F260" t="n">
-        <v>-4.73</v>
+        <v>-3.46</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -8498,10 +8498,10 @@
         </is>
       </c>
       <c r="H260" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I260" t="n">
-        <v>-5.2301</v>
+        <v>-3.7116</v>
       </c>
     </row>
     <row r="261">
@@ -8521,7 +8521,7 @@
         <v>1465</v>
       </c>
       <c r="F261" t="n">
-        <v>-4.35</v>
+        <v>-3.6</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -8529,10 +8529,10 @@
         </is>
       </c>
       <c r="H261" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I261" t="n">
-        <v>-4.8512</v>
+        <v>-3.8502</v>
       </c>
     </row>
     <row r="262">
@@ -8552,7 +8552,7 @@
         <v>2181</v>
       </c>
       <c r="F262" t="n">
-        <v>-4.32</v>
+        <v>-3.56</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -8560,10 +8560,10 @@
         </is>
       </c>
       <c r="H262" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I262" t="n">
-        <v>-4.5733</v>
+        <v>-3.8115</v>
       </c>
     </row>
     <row r="263">
@@ -8583,7 +8583,7 @@
         <v>1306</v>
       </c>
       <c r="F263" t="n">
-        <v>-4.34</v>
+        <v>-3.58</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -8591,10 +8591,10 @@
         </is>
       </c>
       <c r="H263" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I263" t="n">
-        <v>-4.8409</v>
+        <v>-3.8292</v>
       </c>
     </row>
     <row r="264">
@@ -8614,7 +8614,7 @@
         <v>2496</v>
       </c>
       <c r="F264" t="n">
-        <v>-4.89</v>
+        <v>-3.62</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -8622,10 +8622,10 @@
         </is>
       </c>
       <c r="H264" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I264" t="n">
-        <v>-5.3885</v>
+        <v>-3.8701</v>
       </c>
     </row>
     <row r="265">
@@ -8645,7 +8645,7 @@
         <v>1463</v>
       </c>
       <c r="F265" t="n">
-        <v>-4.72</v>
+        <v>-3.45</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -8653,10 +8653,10 @@
         </is>
       </c>
       <c r="H265" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I265" t="n">
-        <v>-5.2201</v>
+        <v>-3.7016</v>
       </c>
     </row>
     <row r="266">
@@ -8676,7 +8676,7 @@
         <v>1601</v>
       </c>
       <c r="F266" t="n">
-        <v>-4.68</v>
+        <v>-3.92</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -8684,10 +8684,10 @@
         </is>
       </c>
       <c r="H266" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I266" t="n">
-        <v>-4.9307</v>
+        <v>-4.1689</v>
       </c>
     </row>
     <row r="267">
@@ -8707,7 +8707,7 @@
         <v>3658</v>
       </c>
       <c r="F267" t="n">
-        <v>-4.82</v>
+        <v>-4.17</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -8715,10 +8715,10 @@
         </is>
       </c>
       <c r="H267" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="I267" t="n">
-        <v>-5.4174</v>
+        <v>-4.6722</v>
       </c>
     </row>
     <row r="268">
@@ -8738,7 +8738,7 @@
         <v>1340</v>
       </c>
       <c r="F268" t="n">
-        <v>-4.56</v>
+        <v>-3.29</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -8746,10 +8746,10 @@
         </is>
       </c>
       <c r="H268" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I268" t="n">
-        <v>-5.0568</v>
+        <v>-3.5384</v>
       </c>
     </row>
     <row r="269">
@@ -8769,7 +8769,7 @@
         <v>3083</v>
       </c>
       <c r="F269" t="n">
-        <v>-3.9</v>
+        <v>-3.14</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -8777,10 +8777,10 @@
         </is>
       </c>
       <c r="H269" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="I269" t="n">
-        <v>-4.1536</v>
+        <v>-3.3919</v>
       </c>
     </row>
     <row r="270">
@@ -8800,7 +8800,7 @@
         <v>1553</v>
       </c>
       <c r="F270" t="n">
-        <v>-3.92</v>
+        <v>-3.16</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -8808,10 +8808,10 @@
         </is>
       </c>
       <c r="H270" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I270" t="n">
-        <v>-4.1746</v>
+        <v>-3.4128</v>
       </c>
     </row>
     <row r="271">
@@ -8831,7 +8831,7 @@
         <v>2905</v>
       </c>
       <c r="F271" t="n">
-        <v>-4.08</v>
+        <v>-3.32</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -8839,10 +8839,10 @@
         </is>
       </c>
       <c r="H271" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I271" t="n">
-        <v>-4.3341</v>
+        <v>-3.5723</v>
       </c>
     </row>
     <row r="272">
@@ -8862,7 +8862,7 @@
         <v>3193</v>
       </c>
       <c r="F272" t="n">
-        <v>-4.17</v>
+        <v>-3.41</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -8870,10 +8870,10 @@
         </is>
       </c>
       <c r="H272" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.003</v>
       </c>
       <c r="I272" t="n">
-        <v>-4.6721</v>
+        <v>-3.6603</v>
       </c>
     </row>
     <row r="273">
@@ -8893,7 +8893,7 @@
         <v>2922</v>
       </c>
       <c r="F273" t="n">
-        <v>-4.98</v>
+        <v>-3.77</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -8901,10 +8901,10 @@
         </is>
       </c>
       <c r="H273" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="I273" t="n">
-        <v>-5.4831</v>
+        <v>-4.0209</v>
       </c>
     </row>
     <row r="274">
@@ -8924,7 +8924,7 @@
         <v>2983</v>
       </c>
       <c r="F274" t="n">
-        <v>-4.88</v>
+        <v>-3.72</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -8932,10 +8932,10 @@
         </is>
       </c>
       <c r="H274" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="I274" t="n">
-        <v>-5.3807</v>
+        <v>-3.9749</v>
       </c>
     </row>
     <row r="275">
@@ -8955,7 +8955,7 @@
         <v>3862</v>
       </c>
       <c r="F275" t="n">
-        <v>-4.78</v>
+        <v>-3.68</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -8963,10 +8963,10 @@
         </is>
       </c>
       <c r="H275" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="I275" t="n">
-        <v>-5.2784</v>
+        <v>-3.9288</v>
       </c>
     </row>
     <row r="276">
@@ -8983,10 +8983,10 @@
         <v>-2.027000898441413</v>
       </c>
       <c r="E276" t="n">
-        <v>1507</v>
+        <v>1893</v>
       </c>
       <c r="F276" t="n">
-        <v>-5</v>
+        <v>-3.73</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -8994,10 +8994,10 @@
         </is>
       </c>
       <c r="H276" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="I276" t="n">
-        <v>-5.25</v>
+        <v>-3.9816</v>
       </c>
     </row>
     <row r="277">
@@ -9017,7 +9017,7 @@
         <v>4218</v>
       </c>
       <c r="F277" t="n">
-        <v>-5.18</v>
+        <v>-3.86</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -9025,10 +9025,10 @@
         </is>
       </c>
       <c r="H277" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="I277" t="n">
-        <v>-5.7783</v>
+        <v>-4.3588</v>
       </c>
     </row>
     <row r="278">
@@ -9048,7 +9048,7 @@
         <v>5393</v>
       </c>
       <c r="F278" t="n">
-        <v>-5.27</v>
+        <v>-3.92</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -9056,10 +9056,10 @@
         </is>
       </c>
       <c r="H278" t="n">
-        <v>0.016</v>
+        <v>0.004</v>
       </c>
       <c r="I278" t="n">
-        <v>-5.8713</v>
+        <v>-4.4165</v>
       </c>
     </row>
     <row r="279">
@@ -9079,7 +9079,7 @@
         <v>1839</v>
       </c>
       <c r="F279" t="n">
-        <v>-4.59</v>
+        <v>-3.55</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -9087,10 +9087,10 @@
         </is>
       </c>
       <c r="H279" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I279" t="n">
-        <v>-4.8389</v>
+        <v>-3.7955</v>
       </c>
     </row>
     <row r="280">
@@ -9107,10 +9107,10 @@
         <v>-2.092072730393835</v>
       </c>
       <c r="E280" t="n">
-        <v>2054</v>
+        <v>2588</v>
       </c>
       <c r="F280" t="n">
-        <v>-4.5</v>
+        <v>-3.46</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="H280" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I280" t="n">
-        <v>-4.7516</v>
+        <v>-3.7083</v>
       </c>
     </row>
     <row r="281">
@@ -9138,10 +9138,10 @@
         <v>-1.932609095590752</v>
       </c>
       <c r="E281" t="n">
-        <v>1558</v>
+        <v>2043</v>
       </c>
       <c r="F281" t="n">
-        <v>-3.79</v>
+        <v>-3.62</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -9149,10 +9149,10 @@
         </is>
       </c>
       <c r="H281" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="I281" t="n">
-        <v>-4.0444</v>
+        <v>-3.8671</v>
       </c>
     </row>
     <row r="282">
@@ -9172,7 +9172,7 @@
         <v>2048</v>
       </c>
       <c r="F282" t="n">
-        <v>-4.58</v>
+        <v>-3.59</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -9180,10 +9180,10 @@
         </is>
       </c>
       <c r="H282" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I282" t="n">
-        <v>-4.8303</v>
+        <v>-3.8397</v>
       </c>
     </row>
     <row r="283">
@@ -9203,7 +9203,7 @@
         <v>2613</v>
       </c>
       <c r="F283" t="n">
-        <v>-4.65</v>
+        <v>-4.09</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -9211,10 +9211,10 @@
         </is>
       </c>
       <c r="H283" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I283" t="n">
-        <v>-5.1508</v>
+        <v>-4.5889</v>
       </c>
     </row>
     <row r="284">
@@ -9234,7 +9234,7 @@
         <v>2390</v>
       </c>
       <c r="F284" t="n">
-        <v>-4.55</v>
+        <v>-4.04</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -9242,10 +9242,10 @@
         </is>
       </c>
       <c r="H284" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I284" t="n">
-        <v>-5.051</v>
+        <v>-4.539</v>
       </c>
     </row>
     <row r="285">
@@ -9265,7 +9265,7 @@
         <v>2174</v>
       </c>
       <c r="F285" t="n">
-        <v>-4.45</v>
+        <v>-3.99</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -9273,10 +9273,10 @@
         </is>
       </c>
       <c r="H285" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I285" t="n">
-        <v>-4.9513</v>
+        <v>-4.4892</v>
       </c>
     </row>
     <row r="286">
@@ -9296,7 +9296,7 @@
         <v>2186</v>
       </c>
       <c r="F286" t="n">
-        <v>-4.35</v>
+        <v>-3.94</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -9304,10 +9304,10 @@
         </is>
       </c>
       <c r="H286" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I286" t="n">
-        <v>-4.8516</v>
+        <v>-4.1893</v>
       </c>
     </row>
     <row r="287">
@@ -9327,7 +9327,7 @@
         <v>1765</v>
       </c>
       <c r="F287" t="n">
-        <v>-4.25</v>
+        <v>-3.89</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -9335,10 +9335,10 @@
         </is>
       </c>
       <c r="H287" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I287" t="n">
-        <v>-4.7518</v>
+        <v>-4.1394</v>
       </c>
     </row>
     <row r="288">
@@ -9355,10 +9355,10 @@
         <v>-1.899201869042152</v>
       </c>
       <c r="E288" t="n">
-        <v>1908</v>
+        <v>1492</v>
       </c>
       <c r="F288" t="n">
-        <v>-4.05</v>
+        <v>-3.74</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -9366,10 +9366,10 @@
         </is>
       </c>
       <c r="H288" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="I288" t="n">
-        <v>-4.3038</v>
+        <v>-3.9913</v>
       </c>
     </row>
     <row r="289">
@@ -9389,7 +9389,7 @@
         <v>2080</v>
       </c>
       <c r="F289" t="n">
-        <v>-4.07</v>
+        <v>-3.76</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -9397,10 +9397,10 @@
         </is>
       </c>
       <c r="H289" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I289" t="n">
-        <v>-4.3221</v>
+        <v>-4.0096</v>
       </c>
     </row>
     <row r="290">
@@ -9420,7 +9420,7 @@
         <v>2353</v>
       </c>
       <c r="F290" t="n">
-        <v>-4.06</v>
+        <v>-3.79</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -9428,10 +9428,10 @@
         </is>
       </c>
       <c r="H290" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I290" t="n">
-        <v>-4.5619</v>
+        <v>-4.0445</v>
       </c>
     </row>
     <row r="291">
@@ -9451,7 +9451,7 @@
         <v>1964</v>
       </c>
       <c r="F291" t="n">
-        <v>-3.97</v>
+        <v>-3.75</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -9459,10 +9459,10 @@
         </is>
       </c>
       <c r="H291" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="I291" t="n">
-        <v>-4.4718</v>
+        <v>-3.9994</v>
       </c>
     </row>
     <row r="292">
@@ -9482,7 +9482,7 @@
         <v>540</v>
       </c>
       <c r="F292" t="n">
-        <v>-4.08</v>
+        <v>-3.77</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -9490,10 +9490,10 @@
         </is>
       </c>
       <c r="H292" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
-        <v>-4.3275</v>
+        <v>-4.015</v>
       </c>
     </row>
     <row r="293">
@@ -9513,7 +9513,7 @@
         <v>663</v>
       </c>
       <c r="F293" t="n">
-        <v>-4</v>
+        <v>-3.69</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -9521,10 +9521,10 @@
         </is>
       </c>
       <c r="H293" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I293" t="n">
-        <v>-4.253</v>
+        <v>-3.9405</v>
       </c>
     </row>
     <row r="294">
@@ -9544,7 +9544,7 @@
         <v>1808</v>
       </c>
       <c r="F294" t="n">
-        <v>-4.6</v>
+        <v>-3.84</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -9552,10 +9552,10 @@
         </is>
       </c>
       <c r="H294" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I294" t="n">
-        <v>-4.8502</v>
+        <v>-4.0884</v>
       </c>
     </row>
     <row r="295">
@@ -9575,7 +9575,7 @@
         <v>2828</v>
       </c>
       <c r="F295" t="n">
-        <v>-4.18</v>
+        <v>-3.41</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -9583,10 +9583,10 @@
         </is>
       </c>
       <c r="H295" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I295" t="n">
-        <v>-4.4257</v>
+        <v>-3.6639</v>
       </c>
     </row>
     <row r="296">
@@ -9606,7 +9606,7 @@
         <v>1043</v>
       </c>
       <c r="F296" t="n">
-        <v>-4</v>
+        <v>-3.35</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -9614,10 +9614,10 @@
         </is>
       </c>
       <c r="H296" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I296" t="n">
-        <v>-4.254</v>
+        <v>-3.6025</v>
       </c>
     </row>
     <row r="297">
@@ -9637,7 +9637,7 @@
         <v>1053</v>
       </c>
       <c r="F297" t="n">
-        <v>-3.93</v>
+        <v>-3.28</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -9645,10 +9645,10 @@
         </is>
       </c>
       <c r="H297" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I297" t="n">
-        <v>-4.1781</v>
+        <v>-3.5265</v>
       </c>
     </row>
     <row r="298">
@@ -9668,7 +9668,7 @@
         <v>2463</v>
       </c>
       <c r="F298" t="n">
-        <v>-4.36</v>
+        <v>-3.1</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -9676,10 +9676,10 @@
         </is>
       </c>
       <c r="H298" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="I298" t="n">
-        <v>-4.6133</v>
+        <v>-3.3512</v>
       </c>
     </row>
     <row r="299">
@@ -9699,7 +9699,7 @@
         <v>1300</v>
       </c>
       <c r="F299" t="n">
-        <v>-4.16</v>
+        <v>-2.96</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -9707,10 +9707,10 @@
         </is>
       </c>
       <c r="H299" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I299" t="n">
-        <v>-4.4142</v>
+        <v>-3.2075</v>
       </c>
     </row>
     <row r="300">
@@ -9730,7 +9730,7 @@
         <v>1125</v>
       </c>
       <c r="F300" t="n">
-        <v>-4.18</v>
+        <v>-2.97</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -9738,10 +9738,10 @@
         </is>
       </c>
       <c r="H300" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I300" t="n">
-        <v>-4.4302</v>
+        <v>-3.2235</v>
       </c>
     </row>
     <row r="301">
@@ -9761,7 +9761,7 @@
         <v>1163</v>
       </c>
       <c r="F301" t="n">
-        <v>-4.1</v>
+        <v>-2.89</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -9769,10 +9769,10 @@
         </is>
       </c>
       <c r="H301" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I301" t="n">
-        <v>-4.3477</v>
+        <v>-3.141</v>
       </c>
     </row>
     <row r="302">
@@ -9792,7 +9792,7 @@
         <v>1282</v>
       </c>
       <c r="F302" t="n">
-        <v>-4.39</v>
+        <v>-3.12</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -9800,10 +9800,10 @@
         </is>
       </c>
       <c r="H302" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I302" t="n">
-        <v>-4.6395</v>
+        <v>-3.3711</v>
       </c>
     </row>
     <row r="303">
@@ -9823,7 +9823,7 @@
         <v>1002</v>
       </c>
       <c r="F303" t="n">
-        <v>-4.4</v>
+        <v>-3.47</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -9831,10 +9831,10 @@
         </is>
       </c>
       <c r="H303" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I303" t="n">
-        <v>-4.6537</v>
+        <v>-3.7158</v>
       </c>
     </row>
     <row r="304">
@@ -9851,10 +9851,10 @@
         <v>-2.171395813342216</v>
       </c>
       <c r="E304" t="n">
-        <v>1238</v>
+        <v>1568</v>
       </c>
       <c r="F304" t="n">
-        <v>-4.32</v>
+        <v>-3.39</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -9862,10 +9862,10 @@
         </is>
       </c>
       <c r="H304" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I304" t="n">
-        <v>-4.573</v>
+        <v>-3.6351</v>
       </c>
     </row>
     <row r="305">
@@ -9885,7 +9885,7 @@
         <v>1156</v>
       </c>
       <c r="F305" t="n">
-        <v>-4.38</v>
+        <v>-3.5</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -9893,10 +9893,10 @@
         </is>
       </c>
       <c r="H305" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I305" t="n">
-        <v>-4.634</v>
+        <v>-3.7513</v>
       </c>
     </row>
     <row r="306">
@@ -9916,7 +9916,7 @@
         <v>1230</v>
       </c>
       <c r="F306" t="n">
-        <v>-4.28</v>
+        <v>-3.46</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -9924,10 +9924,10 @@
         </is>
       </c>
       <c r="H306" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I306" t="n">
-        <v>-4.5336</v>
+        <v>-3.7062</v>
       </c>
     </row>
     <row r="307">
@@ -9947,7 +9947,7 @@
         <v>102</v>
       </c>
       <c r="F307" t="n">
-        <v>-3.87</v>
+        <v>-3.56</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="n">
-        <v>-4.1229</v>
+        <v>-3.8103</v>
       </c>
     </row>
     <row r="308">
@@ -9978,7 +9978,7 @@
         <v>832</v>
       </c>
       <c r="F308" t="n">
-        <v>-3.52</v>
+        <v>-3.49</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -9986,10 +9986,10 @@
         </is>
       </c>
       <c r="H308" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I308" t="n">
-        <v>-3.7735</v>
+        <v>-3.7416</v>
       </c>
     </row>
     <row r="309">
@@ -10009,7 +10009,7 @@
         <v>4358</v>
       </c>
       <c r="F309" t="n">
-        <v>-3.78</v>
+        <v>-3.66</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -10017,10 +10017,10 @@
         </is>
       </c>
       <c r="H309" t="n">
-        <v>0.013</v>
+        <v>0.003</v>
       </c>
       <c r="I309" t="n">
-        <v>-4.2847</v>
+        <v>-3.9058</v>
       </c>
     </row>
     <row r="310">
@@ -10040,7 +10040,7 @@
         <v>3213</v>
       </c>
       <c r="F310" t="n">
-        <v>-3.69</v>
+        <v>-3.61</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -10048,10 +10048,10 @@
         </is>
       </c>
       <c r="H310" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.003</v>
       </c>
       <c r="I310" t="n">
-        <v>-4.1877</v>
+        <v>-3.8574</v>
       </c>
     </row>
     <row r="311">
@@ -10071,7 +10071,7 @@
         <v>714</v>
       </c>
       <c r="F311" t="n">
-        <v>-4.1</v>
+        <v>-3.44</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -10079,10 +10079,10 @@
         </is>
       </c>
       <c r="H311" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I311" t="n">
-        <v>-4.3461</v>
+        <v>-3.6945</v>
       </c>
     </row>
     <row r="312">
@@ -10102,7 +10102,7 @@
         <v>1206</v>
       </c>
       <c r="F312" t="n">
-        <v>-4.02</v>
+        <v>-3.37</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -10110,10 +10110,10 @@
         </is>
       </c>
       <c r="H312" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I312" t="n">
-        <v>-4.2718</v>
+        <v>-3.6203</v>
       </c>
     </row>
     <row r="313">
@@ -10133,7 +10133,7 @@
         <v>1317</v>
       </c>
       <c r="F313" t="n">
-        <v>-4.09</v>
+        <v>-3.48</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -10141,10 +10141,10 @@
         </is>
       </c>
       <c r="H313" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I313" t="n">
-        <v>-4.3353</v>
+        <v>-3.7305</v>
       </c>
     </row>
     <row r="314">
@@ -10164,7 +10164,7 @@
         <v>1599</v>
       </c>
       <c r="F314" t="n">
-        <v>-4</v>
+        <v>-3.44</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -10172,10 +10172,10 @@
         </is>
       </c>
       <c r="H314" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="I314" t="n">
-        <v>-4.2503</v>
+        <v>-3.6923</v>
       </c>
     </row>
     <row r="315">
@@ -10195,7 +10195,7 @@
         <v>2817</v>
       </c>
       <c r="F315" t="n">
-        <v>-3.36</v>
+        <v>-3.33</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -10203,10 +10203,10 @@
         </is>
       </c>
       <c r="H315" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="I315" t="n">
-        <v>-3.607</v>
+        <v>-3.5751</v>
       </c>
     </row>
     <row r="316">
@@ -10223,7 +10223,7 @@
         <v>-2.122465723313642</v>
       </c>
       <c r="E316" t="n">
-        <v>1148</v>
+        <v>938</v>
       </c>
       <c r="F316" t="n">
         <v>-3.45</v>
@@ -10234,7 +10234,7 @@
         </is>
       </c>
       <c r="H316" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I316" t="n">
         <v>-3.7009</v>
@@ -10257,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="F317" t="n">
-        <v>-7.45</v>
+        <v>-5.49</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="n">
-        <v>-9.446400000000001</v>
+        <v>-6.4867</v>
       </c>
     </row>
     <row r="318">
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="F318" t="n">
-        <v>-5.09</v>
+        <v>-3.82</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="n">
-        <v>-5.6854</v>
+        <v>-4.317</v>
       </c>
     </row>
   </sheetData>
